--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_13_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1257848.556753402</v>
+        <v>1196565.596429846</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2808840.042971396</v>
+        <v>2808840.042971397</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12358489.43625504</v>
+        <v>12358489.43625506</v>
       </c>
     </row>
     <row r="9">
@@ -1381,61 +1381,61 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>115.836919585238</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>32.33007665830362</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>83.50684292693452</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="H11" t="n">
+      <c r="V11" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="I11" t="n">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>131.5133056144847</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>116.5735498634229</v>
       </c>
       <c r="I12" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>56.07516397980451</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>54.95647226275547</v>
       </c>
     </row>
     <row r="13">
@@ -1539,64 +1539,64 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>25.67455679469457</v>
       </c>
       <c r="G13" t="n">
-        <v>93.17719577463996</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="I13" t="n">
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="J13" t="n">
-        <v>64.01066663453935</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
     </row>
     <row r="14">
@@ -1609,67 +1609,67 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="F14" t="n">
-        <v>131.5133056144847</v>
-      </c>
-      <c r="G14" t="n">
-        <v>131.5133056144847</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>115.836919585238</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,70 +1685,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>115.836919585238</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>131.5133056144847</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>75.82020307354448</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>40.01671651169357</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>131.5133056144847</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>96.56786436826653</v>
       </c>
       <c r="H16" t="n">
-        <v>32.55719773372718</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>64.01066663453935</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>60.61999804091276</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>131.5133056144847</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>126.033025580236</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>143.0892660992689</v>
@@ -1864,49 +1864,49 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>126.033025580236</v>
+      </c>
+      <c r="V17" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>50.21282250669157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>9.459475716813127</v>
+      </c>
+      <c r="V18" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="T18" t="n">
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>143.0892660992689</v>
-      </c>
-      <c r="U18" t="n">
-        <v>143.0892660992689</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>134.0359414396109</v>
+      </c>
+      <c r="G19" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.0359414396109</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>143.0892660992689</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="H20" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>143.0892660992689</v>
+        <v>126.033025580236</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>126.033025580236</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,14 +2165,14 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S21" t="n">
-        <v>126.033025580236</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>143.0892660992689</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>50.21282250669157</v>
+      </c>
+      <c r="W21" t="n">
         <v>143.0892660992689</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>73.4159433986981</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>134.0359414396109</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.61999804091276</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>301.942207505792</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.0651492234818</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>328.8634192398093</v>
       </c>
       <c r="I23" t="n">
-        <v>172.6552715112505</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T23" t="n">
-        <v>92.61686050137065</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0086995935164</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>7.901891711467955</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -2408,13 +2408,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H24" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>75.82020307354448</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T24" t="n">
-        <v>153.1353925454164</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U24" t="n">
         <v>237.165658224938</v>
@@ -2462,10 +2462,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.3556821752131</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>36.61601985200798</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>285.3038808866851</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.0153251721414</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>83.50684292693452</v>
       </c>
       <c r="S26" t="n">
-        <v>187.1142161021862</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>214.7044699816169</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0086995935164</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>31.33460466745082</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>4.51305460849384</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>84.63941782216899</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.9054575162844</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>167.6695982996953</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>25.45628015901223</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>130.5294184294665</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
@@ -2806,13 +2806,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.0651492234818</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>328.8634192398093</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>172.6552715112505</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>214.7044699816169</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0086995935164</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>218.4427858451136</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -2879,7 +2879,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>31.77469977433482</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -2891,7 +2891,7 @@
         <v>116.5735498634229</v>
       </c>
       <c r="I30" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>211.1471930106489</v>
@@ -2930,13 +2930,13 @@
         <v>237.165658224938</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>202.8519351552527</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>127.9142106630013</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>64.01066663453935</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.61999804091276</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>167.6695982996953</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>110.8687341262284</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
@@ -3049,7 +3049,7 @@
         <v>328.8634192398093</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8624360202236</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>187.1142161021862</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>59.13368660696327</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3113,13 +3113,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>140.8050092544905</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>147.7959531409774</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>211.1471930106489</v>
@@ -3173,7 +3173,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>138.313696265028</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>74.69209545689618</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>108.5746424154657</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.9054575162844</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>393.7639284834526</v>
       </c>
       <c r="G35" t="n">
         <v>393.7639284834526</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0086995935164</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>219.9614380690402</v>
       </c>
       <c r="W35" t="n">
-        <v>27.77681999766818</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3353,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>211.1471930106489</v>
@@ -3410,10 +3410,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>30.64806018845927</v>
+        <v>65.0511925731882</v>
       </c>
     </row>
     <row r="37">
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.61999804091276</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>167.6695982996953</v>
       </c>
       <c r="S37" t="n">
-        <v>191.9248772975407</v>
+        <v>32.18149128002113</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.3633840584323</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>393.7639284834526</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>30.38514831386524</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>105.1106669802627</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3587,10 +3587,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>79.56433576982423</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S39" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.1471930106489</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.165658224938</v>
       </c>
       <c r="V39" t="n">
-        <v>89.2323576191184</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>199.8510895797164</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.3633840584323</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>129.9037665488133</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>250.0086995935164</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>202.5815883273173</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>21.93348955695249</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.1879679986685</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>109.7072249611354</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -3836,7 +3836,7 @@
         <v>147.7959531409774</v>
       </c>
       <c r="H42" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>74.70151135649544</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.165658224938</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>214.2118768164535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.9054575162844</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>167.6695982996953</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>31.94563206343197</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.3633840584323</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>252.5448753384534</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>382.1879679986685</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>80.84815886255878</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.7044699816169</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0086995935164</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>27.77640578054296</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>138.8063878418054</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U45" t="n">
-        <v>237.165658224938</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>145.1081528767898</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>76.14037200120833</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.3633840584323</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>199.8510895797164</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>526.0532224579389</v>
+        <v>43.17770753835435</v>
       </c>
       <c r="C11" t="n">
-        <v>526.0532224579389</v>
+        <v>43.17770753835435</v>
       </c>
       <c r="D11" t="n">
-        <v>526.0532224579389</v>
+        <v>43.17770753835435</v>
       </c>
       <c r="E11" t="n">
-        <v>526.0532224579389</v>
+        <v>43.17770753835435</v>
       </c>
       <c r="F11" t="n">
-        <v>409.0462329779004</v>
+        <v>43.17770753835435</v>
       </c>
       <c r="G11" t="n">
-        <v>276.2045101349865</v>
+        <v>43.17770753835435</v>
       </c>
       <c r="H11" t="n">
-        <v>143.3627872920727</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="I11" t="n">
         <v>10.52106444915878</v>
@@ -5053,40 +5053,40 @@
         <v>175.6807515059976</v>
       </c>
       <c r="N11" t="n">
-        <v>283.6432534483934</v>
+        <v>305.8789240643375</v>
       </c>
       <c r="O11" t="n">
-        <v>369.3201638545884</v>
+        <v>395.855049899599</v>
       </c>
       <c r="P11" t="n">
-        <v>425.3158909851745</v>
+        <v>526.0532224579389</v>
       </c>
       <c r="Q11" t="n">
         <v>526.0532224579389</v>
       </c>
       <c r="R11" t="n">
-        <v>526.0532224579389</v>
+        <v>441.7028760670959</v>
       </c>
       <c r="S11" t="n">
-        <v>526.0532224579389</v>
+        <v>441.7028760670959</v>
       </c>
       <c r="T11" t="n">
-        <v>526.0532224579389</v>
+        <v>441.7028760670959</v>
       </c>
       <c r="U11" t="n">
-        <v>526.0532224579389</v>
+        <v>308.8611532241821</v>
       </c>
       <c r="V11" t="n">
-        <v>526.0532224579389</v>
+        <v>176.0194303812682</v>
       </c>
       <c r="W11" t="n">
-        <v>526.0532224579389</v>
+        <v>176.0194303812682</v>
       </c>
       <c r="X11" t="n">
-        <v>526.0532224579389</v>
+        <v>43.17770753835435</v>
       </c>
       <c r="Y11" t="n">
-        <v>526.0532224579389</v>
+        <v>43.17770753835435</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>336.5699198374447</v>
+        <v>261.1138477601766</v>
       </c>
       <c r="C12" t="n">
-        <v>336.5699198374447</v>
+        <v>261.1138477601766</v>
       </c>
       <c r="D12" t="n">
-        <v>336.5699198374447</v>
+        <v>261.1138477601766</v>
       </c>
       <c r="E12" t="n">
-        <v>336.5699198374447</v>
+        <v>261.1138477601766</v>
       </c>
       <c r="F12" t="n">
-        <v>336.5699198374447</v>
+        <v>261.1138477601766</v>
       </c>
       <c r="G12" t="n">
-        <v>203.7281969945308</v>
+        <v>128.2721249172627</v>
       </c>
       <c r="H12" t="n">
-        <v>85.9771365264269</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="I12" t="n">
         <v>10.52106444915878</v>
@@ -5129,7 +5129,7 @@
         <v>113.8288163692507</v>
       </c>
       <c r="M12" t="n">
-        <v>234.7092963951246</v>
+        <v>234.7092963951245</v>
       </c>
       <c r="N12" t="n">
         <v>364.9074689534644</v>
@@ -5144,28 +5144,28 @@
         <v>526.0532224579389</v>
       </c>
       <c r="R12" t="n">
-        <v>526.0532224579389</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="S12" t="n">
-        <v>526.0532224579389</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="T12" t="n">
-        <v>469.4116426803586</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="U12" t="n">
-        <v>469.4116426803586</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="V12" t="n">
-        <v>469.4116426803586</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="W12" t="n">
-        <v>336.5699198374447</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="X12" t="n">
-        <v>336.5699198374447</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="Y12" t="n">
-        <v>336.5699198374447</v>
+        <v>393.9555706030905</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.9801287301171</v>
+        <v>36.45496020137551</v>
       </c>
       <c r="C13" t="n">
-        <v>434.9801287301171</v>
+        <v>36.45496020137551</v>
       </c>
       <c r="D13" t="n">
-        <v>434.9801287301171</v>
+        <v>36.45496020137551</v>
       </c>
       <c r="E13" t="n">
-        <v>434.9801287301171</v>
+        <v>36.45496020137551</v>
       </c>
       <c r="F13" t="n">
-        <v>434.9801287301171</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="G13" t="n">
-        <v>340.8617491597738</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="H13" t="n">
-        <v>208.0200263168599</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="I13" t="n">
-        <v>75.17830347394602</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="J13" t="n">
         <v>10.52106444915878</v>
@@ -5235,16 +5235,16 @@
         <v>434.9801287301171</v>
       </c>
       <c r="V13" t="n">
-        <v>434.9801287301171</v>
+        <v>302.1384058872032</v>
       </c>
       <c r="W13" t="n">
-        <v>434.9801287301171</v>
+        <v>302.1384058872032</v>
       </c>
       <c r="X13" t="n">
-        <v>434.9801287301171</v>
+        <v>169.2966830442894</v>
       </c>
       <c r="Y13" t="n">
-        <v>434.9801287301171</v>
+        <v>36.45496020137551</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>526.0532224579389</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="C14" t="n">
-        <v>526.0532224579389</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="D14" t="n">
-        <v>526.0532224579389</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="E14" t="n">
-        <v>393.211499615025</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="F14" t="n">
-        <v>260.3697767721111</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5280539291972</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="H14" t="n">
         <v>10.52106444915878</v>
@@ -5278,25 +5278,25 @@
         <v>10.52106444915878</v>
       </c>
       <c r="J14" t="n">
-        <v>83.48560352049219</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="K14" t="n">
-        <v>92.15983399942067</v>
+        <v>19.19529492808726</v>
       </c>
       <c r="L14" t="n">
-        <v>147.9411334031446</v>
+        <v>74.97659433181119</v>
       </c>
       <c r="M14" t="n">
-        <v>248.645290577331</v>
+        <v>175.6807515059976</v>
       </c>
       <c r="N14" t="n">
-        <v>356.6077925197267</v>
+        <v>283.6432534483934</v>
       </c>
       <c r="O14" t="n">
-        <v>442.2847029259217</v>
+        <v>394.2838512067902</v>
       </c>
       <c r="P14" t="n">
-        <v>473.316742704306</v>
+        <v>425.3158909851745</v>
       </c>
       <c r="Q14" t="n">
         <v>526.0532224579389</v>
@@ -5308,22 +5308,22 @@
         <v>526.0532224579389</v>
       </c>
       <c r="T14" t="n">
-        <v>526.0532224579389</v>
+        <v>393.211499615025</v>
       </c>
       <c r="U14" t="n">
-        <v>526.0532224579389</v>
+        <v>393.211499615025</v>
       </c>
       <c r="V14" t="n">
-        <v>526.0532224579389</v>
+        <v>393.211499615025</v>
       </c>
       <c r="W14" t="n">
-        <v>526.0532224579389</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="X14" t="n">
-        <v>526.0532224579389</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="Y14" t="n">
-        <v>526.0532224579389</v>
+        <v>276.2045101349865</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>409.0462329779004</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="C15" t="n">
-        <v>276.2045101349865</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="D15" t="n">
         <v>143.3627872920727</v>
       </c>
       <c r="E15" t="n">
-        <v>10.52106444915878</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="F15" t="n">
-        <v>10.52106444915878</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="G15" t="n">
         <v>10.52106444915878</v>
@@ -5357,22 +5357,22 @@
         <v>10.52106444915878</v>
       </c>
       <c r="J15" t="n">
-        <v>10.52106444915878</v>
+        <v>10.5210644491587</v>
       </c>
       <c r="K15" t="n">
-        <v>30.4791743775277</v>
+        <v>30.47917437752763</v>
       </c>
       <c r="L15" t="n">
-        <v>113.8288163692507</v>
+        <v>113.8288163692506</v>
       </c>
       <c r="M15" t="n">
-        <v>234.7092963951246</v>
+        <v>234.7092963951245</v>
       </c>
       <c r="N15" t="n">
         <v>364.9074689534644</v>
       </c>
       <c r="O15" t="n">
-        <v>467.3890552974452</v>
+        <v>467.3890552974451</v>
       </c>
       <c r="P15" t="n">
         <v>526.0532224579389</v>
@@ -5381,28 +5381,28 @@
         <v>526.0532224579389</v>
       </c>
       <c r="R15" t="n">
-        <v>526.0532224579389</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="S15" t="n">
-        <v>526.0532224579389</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="T15" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="U15" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="V15" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="W15" t="n">
-        <v>526.0532224579389</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="X15" t="n">
-        <v>526.0532224579389</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="Y15" t="n">
-        <v>526.0532224579389</v>
+        <v>276.2045101349865</v>
       </c>
     </row>
     <row r="16">
@@ -5415,25 +5415,25 @@
         <v>240.906084633756</v>
       </c>
       <c r="C16" t="n">
-        <v>240.906084633756</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="D16" t="n">
-        <v>240.906084633756</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="E16" t="n">
-        <v>240.906084633756</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="F16" t="n">
-        <v>240.906084633756</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="G16" t="n">
-        <v>240.906084633756</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="H16" t="n">
-        <v>208.0200263168599</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="I16" t="n">
-        <v>75.17830347394602</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="J16" t="n">
         <v>10.52106444915878</v>
@@ -5460,7 +5460,7 @@
         <v>373.7478074766699</v>
       </c>
       <c r="R16" t="n">
-        <v>240.906084633756</v>
+        <v>373.7478074766699</v>
       </c>
       <c r="S16" t="n">
         <v>240.906084633756</v>
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>572.3570643970758</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="C17" t="n">
-        <v>572.3570643970758</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="D17" t="n">
-        <v>445.0509779523929</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="E17" t="n">
-        <v>445.0509779523929</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="F17" t="n">
-        <v>300.5163657309091</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="G17" t="n">
-        <v>155.9817535094253</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="H17" t="n">
-        <v>155.9817535094253</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="I17" t="n">
         <v>11.44714128794152</v>
       </c>
       <c r="J17" t="n">
-        <v>84.41168035927494</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="K17" t="n">
-        <v>93.08591083820342</v>
+        <v>90.46282421942604</v>
       </c>
       <c r="L17" t="n">
-        <v>148.8672102419274</v>
+        <v>146.24412362315</v>
       </c>
       <c r="M17" t="n">
-        <v>249.5713674161137</v>
+        <v>246.9482807973363</v>
       </c>
       <c r="N17" t="n">
-        <v>357.5338693585095</v>
+        <v>354.9107827397321</v>
       </c>
       <c r="O17" t="n">
-        <v>443.2107797647045</v>
+        <v>440.5876931459271</v>
       </c>
       <c r="P17" t="n">
-        <v>572.3570643970758</v>
+        <v>471.6197329243114</v>
       </c>
       <c r="Q17" t="n">
         <v>572.3570643970758</v>
@@ -5548,19 +5548,19 @@
         <v>572.3570643970758</v>
       </c>
       <c r="U17" t="n">
-        <v>572.3570643970758</v>
+        <v>445.0509779523929</v>
       </c>
       <c r="V17" t="n">
-        <v>572.3570643970758</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="W17" t="n">
-        <v>572.3570643970758</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="X17" t="n">
-        <v>572.3570643970758</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="Y17" t="n">
-        <v>572.3570643970758</v>
+        <v>155.9817535094253</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.16716402197341</v>
+        <v>273.7328139775292</v>
       </c>
       <c r="C18" t="n">
-        <v>11.44714128794152</v>
+        <v>273.7328139775292</v>
       </c>
       <c r="D18" t="n">
-        <v>11.44714128794152</v>
+        <v>273.7328139775292</v>
       </c>
       <c r="E18" t="n">
-        <v>11.44714128794152</v>
+        <v>129.1982017560454</v>
       </c>
       <c r="F18" t="n">
-        <v>11.44714128794152</v>
+        <v>129.1982017560454</v>
       </c>
       <c r="G18" t="n">
-        <v>11.44714128794152</v>
+        <v>129.1982017560454</v>
       </c>
       <c r="H18" t="n">
         <v>11.44714128794152</v>
@@ -5612,34 +5612,34 @@
         <v>479.7753330161643</v>
       </c>
       <c r="P18" t="n">
-        <v>572.3570643970758</v>
+        <v>538.439500176658</v>
       </c>
       <c r="Q18" t="n">
         <v>572.3570643970758</v>
       </c>
       <c r="R18" t="n">
-        <v>495.7710006864248</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="S18" t="n">
-        <v>351.236388464941</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="T18" t="n">
-        <v>206.7017762434572</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="U18" t="n">
-        <v>62.16716402197341</v>
+        <v>562.8020384204968</v>
       </c>
       <c r="V18" t="n">
-        <v>62.16716402197341</v>
+        <v>418.267426199013</v>
       </c>
       <c r="W18" t="n">
-        <v>62.16716402197341</v>
+        <v>418.267426199013</v>
       </c>
       <c r="X18" t="n">
-        <v>62.16716402197341</v>
+        <v>418.267426199013</v>
       </c>
       <c r="Y18" t="n">
-        <v>62.16716402197341</v>
+        <v>273.7328139775292</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.8369811259323</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="C19" t="n">
-        <v>146.8369811259323</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="D19" t="n">
-        <v>146.8369811259323</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="E19" t="n">
-        <v>146.8369811259323</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="F19" t="n">
-        <v>146.8369811259323</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8369811259323</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="H19" t="n">
-        <v>146.8369811259323</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="I19" t="n">
         <v>11.44714128794152</v>
@@ -5703,13 +5703,13 @@
         <v>435.9062055688999</v>
       </c>
       <c r="T19" t="n">
-        <v>291.3715933474161</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="U19" t="n">
-        <v>291.3715933474161</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="V19" t="n">
-        <v>291.3715933474161</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="W19" t="n">
         <v>291.3715933474161</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>155.9817535094253</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="C20" t="n">
-        <v>155.9817535094253</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="D20" t="n">
-        <v>155.9817535094253</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="E20" t="n">
         <v>155.9817535094253</v>
@@ -5743,7 +5743,7 @@
         <v>155.9817535094253</v>
       </c>
       <c r="G20" t="n">
-        <v>155.9817535094253</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="H20" t="n">
         <v>11.44714128794152</v>
@@ -5752,22 +5752,22 @@
         <v>11.44714128794152</v>
       </c>
       <c r="J20" t="n">
-        <v>81.78859374049756</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="K20" t="n">
-        <v>90.46282421942604</v>
+        <v>20.12137176687</v>
       </c>
       <c r="L20" t="n">
-        <v>146.24412362315</v>
+        <v>75.90267117059392</v>
       </c>
       <c r="M20" t="n">
-        <v>246.9482807973363</v>
+        <v>176.6068283447803</v>
       </c>
       <c r="N20" t="n">
-        <v>354.9107827397321</v>
+        <v>284.5693302871761</v>
       </c>
       <c r="O20" t="n">
-        <v>440.5876931459271</v>
+        <v>370.2462406933711</v>
       </c>
       <c r="P20" t="n">
         <v>471.6197329243114</v>
@@ -5788,16 +5788,16 @@
         <v>427.8224521755919</v>
       </c>
       <c r="V20" t="n">
-        <v>283.2878399541081</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="W20" t="n">
-        <v>283.2878399541081</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="X20" t="n">
-        <v>155.9817535094253</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="Y20" t="n">
-        <v>155.9817535094253</v>
+        <v>300.5163657309091</v>
       </c>
     </row>
     <row r="21">
@@ -5813,10 +5813,10 @@
         <v>155.9817535094253</v>
       </c>
       <c r="D21" t="n">
-        <v>11.44714128794152</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="E21" t="n">
-        <v>11.44714128794152</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="F21" t="n">
         <v>11.44714128794152</v>
@@ -5837,16 +5837,16 @@
         <v>31.40525121631044</v>
       </c>
       <c r="L21" t="n">
-        <v>114.7548932080334</v>
+        <v>148.6724574284511</v>
       </c>
       <c r="M21" t="n">
-        <v>256.4132666463097</v>
+        <v>269.552937454325</v>
       </c>
       <c r="N21" t="n">
-        <v>398.071640084586</v>
+        <v>411.2113108926013</v>
       </c>
       <c r="O21" t="n">
-        <v>500.5532264285667</v>
+        <v>513.692897236582</v>
       </c>
       <c r="P21" t="n">
         <v>572.3570643970758</v>
@@ -5855,19 +5855,19 @@
         <v>572.3570643970758</v>
       </c>
       <c r="R21" t="n">
-        <v>572.3570643970758</v>
+        <v>495.7710006864248</v>
       </c>
       <c r="S21" t="n">
-        <v>445.0509779523929</v>
+        <v>495.7710006864248</v>
       </c>
       <c r="T21" t="n">
+        <v>351.236388464941</v>
+      </c>
+      <c r="U21" t="n">
+        <v>351.236388464941</v>
+      </c>
+      <c r="V21" t="n">
         <v>300.5163657309091</v>
-      </c>
-      <c r="U21" t="n">
-        <v>155.9817535094253</v>
-      </c>
-      <c r="V21" t="n">
-        <v>155.9817535094253</v>
       </c>
       <c r="W21" t="n">
         <v>155.9817535094253</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.60465987248506</v>
+        <v>146.8369811259323</v>
       </c>
       <c r="C22" t="n">
-        <v>85.60465987248506</v>
+        <v>146.8369811259323</v>
       </c>
       <c r="D22" t="n">
-        <v>11.44714128794152</v>
+        <v>146.8369811259323</v>
       </c>
       <c r="E22" t="n">
-        <v>11.44714128794152</v>
+        <v>146.8369811259323</v>
       </c>
       <c r="F22" t="n">
-        <v>11.44714128794152</v>
+        <v>146.8369811259323</v>
       </c>
       <c r="G22" t="n">
         <v>11.44714128794152</v>
@@ -5931,31 +5931,31 @@
         <v>435.9062055688999</v>
       </c>
       <c r="Q22" t="n">
-        <v>374.6738843154527</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="R22" t="n">
-        <v>230.1392720939689</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="S22" t="n">
-        <v>230.1392720939689</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="T22" t="n">
-        <v>230.1392720939689</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="U22" t="n">
-        <v>230.1392720939689</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="V22" t="n">
-        <v>230.1392720939689</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="W22" t="n">
-        <v>85.60465987248506</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="X22" t="n">
-        <v>85.60465987248506</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.60465987248506</v>
+        <v>291.3715933474161</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1377.156612681931</v>
+        <v>1086.471548814315</v>
       </c>
       <c r="C23" t="n">
-        <v>1377.156612681931</v>
+        <v>1086.471548814315</v>
       </c>
       <c r="D23" t="n">
-        <v>1377.156612681931</v>
+        <v>781.4794200205854</v>
       </c>
       <c r="E23" t="n">
-        <v>1377.156612681931</v>
+        <v>781.4794200205854</v>
       </c>
       <c r="F23" t="n">
-        <v>969.8846433485841</v>
+        <v>374.2074506872383</v>
       </c>
       <c r="G23" t="n">
-        <v>548.6067148400166</v>
+        <v>374.2074506872383</v>
       </c>
       <c r="H23" t="n">
-        <v>216.4214428806133</v>
+        <v>42.02217872783499</v>
       </c>
       <c r="I23" t="n">
-        <v>42.022178727835</v>
+        <v>42.02217872783499</v>
       </c>
       <c r="J23" t="n">
-        <v>114.9867177991692</v>
+        <v>114.9867177991685</v>
       </c>
       <c r="K23" t="n">
-        <v>331.6067133507513</v>
+        <v>331.6067133507506</v>
       </c>
       <c r="L23" t="n">
-        <v>655.3260351128802</v>
+        <v>655.3260351128799</v>
       </c>
       <c r="M23" t="n">
         <v>1044.402114293388</v>
@@ -6004,37 +6004,37 @@
         <v>1432.93141518456</v>
       </c>
       <c r="O23" t="n">
-        <v>1762.899257874432</v>
+        <v>1762.899257874431</v>
       </c>
       <c r="P23" t="n">
         <v>2000.371604918985</v>
       </c>
       <c r="Q23" t="n">
-        <v>2101.10893639175</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="R23" t="n">
-        <v>2101.10893639175</v>
+        <v>2016.758590000906</v>
       </c>
       <c r="S23" t="n">
-        <v>2101.10893639175</v>
+        <v>1827.754331311829</v>
       </c>
       <c r="T23" t="n">
-        <v>2007.556552046931</v>
+        <v>1827.754331311829</v>
       </c>
       <c r="U23" t="n">
-        <v>1755.02251205348</v>
+        <v>1827.754331311829</v>
       </c>
       <c r="V23" t="n">
-        <v>1755.02251205348</v>
+        <v>1827.754331311829</v>
       </c>
       <c r="W23" t="n">
-        <v>1755.02251205348</v>
+        <v>1827.754331311829</v>
       </c>
       <c r="X23" t="n">
-        <v>1755.02251205348</v>
+        <v>1464.337448185864</v>
       </c>
       <c r="Y23" t="n">
-        <v>1755.02251205348</v>
+        <v>1464.337448185864</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>494.1165593134928</v>
+        <v>875.4943309517239</v>
       </c>
       <c r="C24" t="n">
-        <v>494.1165593134928</v>
+        <v>686.0820566846876</v>
       </c>
       <c r="D24" t="n">
-        <v>333.3364430745245</v>
+        <v>525.3019404457193</v>
       </c>
       <c r="E24" t="n">
-        <v>159.7732391959389</v>
+        <v>351.7387365671337</v>
       </c>
       <c r="F24" t="n">
-        <v>159.7732391959389</v>
+        <v>191.3110202843778</v>
       </c>
       <c r="G24" t="n">
-        <v>159.7732391959389</v>
+        <v>42.02217872783499</v>
       </c>
       <c r="H24" t="n">
-        <v>42.022178727835</v>
+        <v>42.02217872783499</v>
       </c>
       <c r="I24" t="n">
-        <v>42.022178727835</v>
+        <v>42.02217872783499</v>
       </c>
       <c r="J24" t="n">
-        <v>42.022178727835</v>
+        <v>42.02217872783499</v>
       </c>
       <c r="K24" t="n">
         <v>231.6400275045133</v>
@@ -6077,43 +6077,43 @@
         <v>552.8911678153114</v>
       </c>
       <c r="M24" t="n">
-        <v>972.5307603380852</v>
+        <v>920.7434948910832</v>
       </c>
       <c r="N24" t="n">
-        <v>1421.696853765238</v>
+        <v>1369.909588318236</v>
       </c>
       <c r="O24" t="n">
         <v>1725.061729724624</v>
       </c>
       <c r="P24" t="n">
-        <v>1988.026132223011</v>
+        <v>1988.02613222301</v>
       </c>
       <c r="Q24" t="n">
-        <v>2101.10893639175</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="R24" t="n">
         <v>2024.522872681099</v>
       </c>
       <c r="S24" t="n">
-        <v>2024.522872681099</v>
+        <v>1848.795590991591</v>
       </c>
       <c r="T24" t="n">
-        <v>1869.840657988759</v>
+        <v>1635.515598051542</v>
       </c>
       <c r="U24" t="n">
-        <v>1630.279387054478</v>
+        <v>1395.954327117261</v>
       </c>
       <c r="V24" t="n">
-        <v>1387.199668958112</v>
+        <v>1152.874609020895</v>
       </c>
       <c r="W24" t="n">
-        <v>1117.801099688404</v>
+        <v>883.4760397511865</v>
       </c>
       <c r="X24" t="n">
-        <v>898.2931053051002</v>
+        <v>883.4760397511865</v>
       </c>
       <c r="Y24" t="n">
-        <v>672.6524122404278</v>
+        <v>883.4760397511865</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2101.10893639175</v>
+        <v>247.1466240045828</v>
       </c>
       <c r="C25" t="n">
-        <v>2101.10893639175</v>
+        <v>79.00805736622689</v>
       </c>
       <c r="D25" t="n">
-        <v>1954.459794724365</v>
+        <v>79.00805736622689</v>
       </c>
       <c r="E25" t="n">
-        <v>1811.352581378683</v>
+        <v>79.00805736622689</v>
       </c>
       <c r="F25" t="n">
-        <v>1676.649872110791</v>
+        <v>79.00805736622689</v>
       </c>
       <c r="G25" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783499</v>
       </c>
       <c r="H25" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783499</v>
       </c>
       <c r="I25" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783499</v>
       </c>
       <c r="J25" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783499</v>
       </c>
       <c r="K25" t="n">
-        <v>1701.767600371034</v>
+        <v>67.13990698807753</v>
       </c>
       <c r="L25" t="n">
-        <v>1786.996890721359</v>
+        <v>152.3691973384021</v>
       </c>
       <c r="M25" t="n">
-        <v>1885.455117016831</v>
+        <v>250.8274236338743</v>
       </c>
       <c r="N25" t="n">
-        <v>1989.588363015516</v>
+        <v>354.9606696325595</v>
       </c>
       <c r="O25" t="n">
-        <v>2063.774623795302</v>
+        <v>429.1469304123455</v>
       </c>
       <c r="P25" t="n">
-        <v>2101.10893639175</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="Q25" t="n">
-        <v>2101.10893639175</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="R25" t="n">
-        <v>2101.10893639175</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="S25" t="n">
-        <v>2101.10893639175</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="T25" t="n">
-        <v>2101.10893639175</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="U25" t="n">
-        <v>2101.10893639175</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="V25" t="n">
-        <v>2101.10893639175</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="W25" t="n">
-        <v>2101.10893639175</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="X25" t="n">
-        <v>2101.10893639175</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="Y25" t="n">
-        <v>2101.10893639175</v>
+        <v>247.1466240045828</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>972.2000515203308</v>
+        <v>637.6993713891808</v>
       </c>
       <c r="C26" t="n">
-        <v>618.4571248726754</v>
+        <v>637.6993713891808</v>
       </c>
       <c r="D26" t="n">
-        <v>618.4571248726754</v>
+        <v>637.6993713891808</v>
       </c>
       <c r="E26" t="n">
-        <v>618.4571248726754</v>
+        <v>637.6993713891808</v>
       </c>
       <c r="F26" t="n">
-        <v>618.4571248726754</v>
+        <v>637.6993713891808</v>
       </c>
       <c r="G26" t="n">
         <v>216.4214428806133</v>
@@ -6226,19 +6226,19 @@
         <v>42.02217872783498</v>
       </c>
       <c r="J26" t="n">
-        <v>114.9867177991684</v>
+        <v>114.9867177991683</v>
       </c>
       <c r="K26" t="n">
-        <v>331.6067133507505</v>
+        <v>331.6067133507504</v>
       </c>
       <c r="L26" t="n">
-        <v>655.3260351128794</v>
+        <v>655.3260351128793</v>
       </c>
       <c r="M26" t="n">
         <v>1044.402114293388</v>
       </c>
       <c r="N26" t="n">
-        <v>1432.93141518456</v>
+        <v>1432.931415184559</v>
       </c>
       <c r="O26" t="n">
         <v>1762.899257874431</v>
@@ -6253,25 +6253,25 @@
         <v>2016.758590000906</v>
       </c>
       <c r="S26" t="n">
-        <v>1827.754331311829</v>
+        <v>2016.758590000906</v>
       </c>
       <c r="T26" t="n">
-        <v>1610.881129310196</v>
+        <v>2016.758590000906</v>
       </c>
       <c r="U26" t="n">
-        <v>1358.347089316745</v>
+        <v>2016.758590000906</v>
       </c>
       <c r="V26" t="n">
-        <v>1358.347089316745</v>
+        <v>2016.758590000906</v>
       </c>
       <c r="W26" t="n">
-        <v>1358.347089316745</v>
+        <v>1675.44903058094</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.347089316745</v>
+        <v>1312.032147454974</v>
       </c>
       <c r="Y26" t="n">
-        <v>972.2000515203308</v>
+        <v>925.8851096585597</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>512.1048447764329</v>
+        <v>686.0820566846876</v>
       </c>
       <c r="C27" t="n">
-        <v>322.6925705093965</v>
+        <v>686.0820566846876</v>
       </c>
       <c r="D27" t="n">
-        <v>291.0414546836886</v>
+        <v>525.3019404457193</v>
       </c>
       <c r="E27" t="n">
-        <v>117.4782508051031</v>
+        <v>351.7387365671337</v>
       </c>
       <c r="F27" t="n">
-        <v>117.4782508051031</v>
+        <v>191.3110202843778</v>
       </c>
       <c r="G27" t="n">
-        <v>117.4782508051031</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="H27" t="n">
-        <v>117.4782508051031</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="I27" t="n">
         <v>42.02217872783498</v>
       </c>
       <c r="J27" t="n">
-        <v>42.02217872783498</v>
+        <v>78.80223984760164</v>
       </c>
       <c r="K27" t="n">
-        <v>231.6400275045133</v>
+        <v>179.8527620575108</v>
       </c>
       <c r="L27" t="n">
-        <v>552.8911678153114</v>
+        <v>501.1039023683089</v>
       </c>
       <c r="M27" t="n">
         <v>920.7434948910827</v>
@@ -6329,28 +6329,28 @@
         <v>2101.108936391749</v>
       </c>
       <c r="R27" t="n">
-        <v>2101.108936391749</v>
+        <v>2096.550295373068</v>
       </c>
       <c r="S27" t="n">
-        <v>2101.108936391749</v>
+        <v>2096.550295373068</v>
       </c>
       <c r="T27" t="n">
-        <v>1887.8289434517</v>
+        <v>1883.270302433019</v>
       </c>
       <c r="U27" t="n">
-        <v>1648.267672517419</v>
+        <v>1643.709031498738</v>
       </c>
       <c r="V27" t="n">
-        <v>1405.187954421053</v>
+        <v>1400.629313402372</v>
       </c>
       <c r="W27" t="n">
-        <v>1135.789385151344</v>
+        <v>1131.230744132664</v>
       </c>
       <c r="X27" t="n">
-        <v>916.2813907680404</v>
+        <v>911.72274974936</v>
       </c>
       <c r="Y27" t="n">
-        <v>690.640697703368</v>
+        <v>686.0820566846876</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.02217872783498</v>
+        <v>297.1180124030405</v>
       </c>
       <c r="C28" t="n">
-        <v>42.02217872783498</v>
+        <v>297.1180124030405</v>
       </c>
       <c r="D28" t="n">
-        <v>42.02217872783498</v>
+        <v>211.6236509665061</v>
       </c>
       <c r="E28" t="n">
-        <v>42.02217872783498</v>
+        <v>211.6236509665061</v>
       </c>
       <c r="F28" t="n">
-        <v>42.02217872783498</v>
+        <v>211.6236509665061</v>
       </c>
       <c r="G28" t="n">
         <v>42.02217872783498</v>
@@ -6408,28 +6408,28 @@
         <v>466.4812430087933</v>
       </c>
       <c r="R28" t="n">
-        <v>466.4812430087933</v>
+        <v>297.1180124030405</v>
       </c>
       <c r="S28" t="n">
-        <v>466.4812430087933</v>
+        <v>297.1180124030405</v>
       </c>
       <c r="T28" t="n">
-        <v>466.4812430087933</v>
+        <v>297.1180124030405</v>
       </c>
       <c r="U28" t="n">
-        <v>466.4812430087933</v>
+        <v>297.1180124030405</v>
       </c>
       <c r="V28" t="n">
-        <v>466.4812430087933</v>
+        <v>297.1180124030405</v>
       </c>
       <c r="W28" t="n">
-        <v>466.4812430087933</v>
+        <v>297.1180124030405</v>
       </c>
       <c r="X28" t="n">
-        <v>440.7678287067608</v>
+        <v>297.1180124030405</v>
       </c>
       <c r="Y28" t="n">
-        <v>221.4332097025502</v>
+        <v>297.1180124030405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1884.235734390116</v>
+        <v>1165.709372004478</v>
       </c>
       <c r="C29" t="n">
-        <v>1884.235734390116</v>
+        <v>1165.709372004478</v>
       </c>
       <c r="D29" t="n">
-        <v>1752.387836986614</v>
+        <v>824.525372365865</v>
       </c>
       <c r="E29" t="n">
-        <v>1377.156612681931</v>
+        <v>449.294148061182</v>
       </c>
       <c r="F29" t="n">
-        <v>969.8846433485841</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="G29" t="n">
-        <v>548.6067148400166</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="H29" t="n">
-        <v>216.4214428806133</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="I29" t="n">
         <v>42.02217872783498</v>
       </c>
       <c r="J29" t="n">
-        <v>114.9867177991682</v>
+        <v>114.9867177991683</v>
       </c>
       <c r="K29" t="n">
         <v>331.6067133507504</v>
@@ -6487,28 +6487,28 @@
         <v>2101.108936391749</v>
       </c>
       <c r="R29" t="n">
-        <v>2101.108936391749</v>
+        <v>2016.758590000906</v>
       </c>
       <c r="S29" t="n">
-        <v>2101.108936391749</v>
+        <v>2016.758590000906</v>
       </c>
       <c r="T29" t="n">
-        <v>1884.235734390116</v>
+        <v>2016.758590000906</v>
       </c>
       <c r="U29" t="n">
-        <v>1884.235734390116</v>
+        <v>1764.224550007455</v>
       </c>
       <c r="V29" t="n">
-        <v>1884.235734390116</v>
+        <v>1764.224550007455</v>
       </c>
       <c r="W29" t="n">
-        <v>1884.235734390116</v>
+        <v>1543.575271376027</v>
       </c>
       <c r="X29" t="n">
-        <v>1884.235734390116</v>
+        <v>1543.575271376027</v>
       </c>
       <c r="Y29" t="n">
-        <v>1884.235734390116</v>
+        <v>1543.575271376027</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>927.2339159562223</v>
+        <v>819.6821875412422</v>
       </c>
       <c r="C30" t="n">
-        <v>737.821641689186</v>
+        <v>630.2699132742059</v>
       </c>
       <c r="D30" t="n">
-        <v>577.0415254502177</v>
+        <v>469.4897970352376</v>
       </c>
       <c r="E30" t="n">
-        <v>544.9458691125058</v>
+        <v>469.4897970352376</v>
       </c>
       <c r="F30" t="n">
-        <v>384.5181528297499</v>
+        <v>309.0620807524817</v>
       </c>
       <c r="G30" t="n">
-        <v>235.2293112732071</v>
+        <v>159.7732391959389</v>
       </c>
       <c r="H30" t="n">
-        <v>117.4782508051031</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="I30" t="n">
         <v>42.02217872783498</v>
@@ -6545,49 +6545,49 @@
         <v>78.80223984760164</v>
       </c>
       <c r="K30" t="n">
-        <v>179.8527620575108</v>
+        <v>268.42008862428</v>
       </c>
       <c r="L30" t="n">
-        <v>501.1039023683089</v>
+        <v>589.671228935078</v>
       </c>
       <c r="M30" t="n">
-        <v>920.7434948910827</v>
+        <v>1009.310821457852</v>
       </c>
       <c r="N30" t="n">
-        <v>1369.909588318235</v>
+        <v>1458.476914885005</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.061729724624</v>
+        <v>1813.629056291393</v>
       </c>
       <c r="P30" t="n">
-        <v>1988.02613222301</v>
+        <v>2076.593458789779</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.108936391749</v>
       </c>
       <c r="R30" t="n">
-        <v>2024.522872681098</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="S30" t="n">
-        <v>1848.795590991591</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="T30" t="n">
-        <v>1635.515598051541</v>
+        <v>1887.8289434517</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.954327117261</v>
+        <v>1648.267672517419</v>
       </c>
       <c r="V30" t="n">
-        <v>1152.874609020895</v>
+        <v>1443.366727916153</v>
       </c>
       <c r="W30" t="n">
-        <v>1152.874609020895</v>
+        <v>1443.366727916153</v>
       </c>
       <c r="X30" t="n">
-        <v>1152.874609020895</v>
+        <v>1223.85873353285</v>
       </c>
       <c r="Y30" t="n">
-        <v>927.2339159562223</v>
+        <v>998.2180404681774</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.8856911495932</v>
+        <v>185.1293920735168</v>
       </c>
       <c r="C31" t="n">
-        <v>235.8856911495932</v>
+        <v>185.1293920735168</v>
       </c>
       <c r="D31" t="n">
-        <v>235.8856911495932</v>
+        <v>185.1293920735168</v>
       </c>
       <c r="E31" t="n">
-        <v>235.8856911495932</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="F31" t="n">
-        <v>235.8856911495932</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="G31" t="n">
-        <v>235.8856911495932</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="H31" t="n">
-        <v>235.8856911495932</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="I31" t="n">
-        <v>106.6794177526222</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="J31" t="n">
         <v>42.02217872783498</v>
@@ -6642,31 +6642,31 @@
         <v>466.4812430087933</v>
       </c>
       <c r="Q31" t="n">
-        <v>405.2489217553461</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="R31" t="n">
-        <v>235.8856911495932</v>
+        <v>297.1180124030405</v>
       </c>
       <c r="S31" t="n">
-        <v>235.8856911495932</v>
+        <v>185.1293920735168</v>
       </c>
       <c r="T31" t="n">
-        <v>235.8856911495932</v>
+        <v>185.1293920735168</v>
       </c>
       <c r="U31" t="n">
-        <v>235.8856911495932</v>
+        <v>185.1293920735168</v>
       </c>
       <c r="V31" t="n">
-        <v>235.8856911495932</v>
+        <v>185.1293920735168</v>
       </c>
       <c r="W31" t="n">
-        <v>235.8856911495932</v>
+        <v>185.1293920735168</v>
       </c>
       <c r="X31" t="n">
-        <v>235.8856911495932</v>
+        <v>185.1293920735168</v>
       </c>
       <c r="Y31" t="n">
-        <v>235.8856911495932</v>
+        <v>185.1293920735168</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1851.637570611537</v>
+        <v>1331.109908478047</v>
       </c>
       <c r="C32" t="n">
-        <v>1497.894643963882</v>
+        <v>1331.109908478047</v>
       </c>
       <c r="D32" t="n">
-        <v>1156.710644325268</v>
+        <v>1331.109908478047</v>
       </c>
       <c r="E32" t="n">
-        <v>781.4794200205853</v>
+        <v>955.8786841733636</v>
       </c>
       <c r="F32" t="n">
-        <v>374.2074506872383</v>
+        <v>548.6067148400166</v>
       </c>
       <c r="G32" t="n">
-        <v>374.2074506872383</v>
+        <v>548.6067148400166</v>
       </c>
       <c r="H32" t="n">
-        <v>42.02217872783498</v>
+        <v>216.4214428806133</v>
       </c>
       <c r="I32" t="n">
         <v>42.02217872783498</v>
       </c>
       <c r="J32" t="n">
-        <v>114.9867177991683</v>
+        <v>114.9867177991682</v>
       </c>
       <c r="K32" t="n">
         <v>331.6067133507504</v>
@@ -6724,28 +6724,28 @@
         <v>2101.108936391749</v>
       </c>
       <c r="R32" t="n">
-        <v>2040.641829300614</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="S32" t="n">
-        <v>1851.637570611537</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="T32" t="n">
-        <v>1851.637570611537</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="U32" t="n">
-        <v>1851.637570611537</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="V32" t="n">
-        <v>1851.637570611537</v>
+        <v>1776.987942847151</v>
       </c>
       <c r="W32" t="n">
-        <v>1851.637570611537</v>
+        <v>1717.256946274461</v>
       </c>
       <c r="X32" t="n">
-        <v>1851.637570611537</v>
+        <v>1717.256946274461</v>
       </c>
       <c r="Y32" t="n">
-        <v>1851.637570611537</v>
+        <v>1331.109908478047</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>659.2544712584863</v>
+        <v>974.6925572561024</v>
       </c>
       <c r="C33" t="n">
-        <v>469.84219699145</v>
+        <v>785.2802829890661</v>
       </c>
       <c r="D33" t="n">
-        <v>309.0620807524817</v>
+        <v>643.0530009138232</v>
       </c>
       <c r="E33" t="n">
-        <v>309.0620807524817</v>
+        <v>469.4897970352376</v>
       </c>
       <c r="F33" t="n">
         <v>309.0620807524817</v>
@@ -6779,25 +6779,25 @@
         <v>42.02217872783498</v>
       </c>
       <c r="J33" t="n">
-        <v>78.80223984760164</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="K33" t="n">
-        <v>268.42008862428</v>
+        <v>231.6400275045133</v>
       </c>
       <c r="L33" t="n">
-        <v>589.671228935078</v>
+        <v>552.8911678153114</v>
       </c>
       <c r="M33" t="n">
-        <v>1009.310821457852</v>
+        <v>972.5307603380852</v>
       </c>
       <c r="N33" t="n">
-        <v>1369.909588318235</v>
+        <v>1421.696853765238</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.061729724624</v>
+        <v>1776.848995171626</v>
       </c>
       <c r="P33" t="n">
-        <v>1988.02613222301</v>
+        <v>2039.813397670012</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.108936391749</v>
@@ -6806,25 +6806,25 @@
         <v>2101.108936391749</v>
       </c>
       <c r="S33" t="n">
-        <v>1925.381654702242</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="T33" t="n">
-        <v>1712.101661762192</v>
+        <v>1887.8289434517</v>
       </c>
       <c r="U33" t="n">
-        <v>1472.540390827912</v>
+        <v>1648.267672517419</v>
       </c>
       <c r="V33" t="n">
-        <v>1472.540390827912</v>
+        <v>1648.267672517419</v>
       </c>
       <c r="W33" t="n">
-        <v>1203.141821558203</v>
+        <v>1378.86910324771</v>
       </c>
       <c r="X33" t="n">
-        <v>1063.431017250094</v>
+        <v>1378.86910324771</v>
       </c>
       <c r="Y33" t="n">
-        <v>837.7903241854215</v>
+        <v>1153.228410183038</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2101.108936391749</v>
+        <v>287.0702120340781</v>
       </c>
       <c r="C34" t="n">
-        <v>1932.970369753393</v>
+        <v>211.6236509665061</v>
       </c>
       <c r="D34" t="n">
-        <v>1786.321228086008</v>
+        <v>211.6236509665061</v>
       </c>
       <c r="E34" t="n">
-        <v>1676.649872110791</v>
+        <v>211.6236509665061</v>
       </c>
       <c r="F34" t="n">
-        <v>1676.649872110791</v>
+        <v>211.6236509665061</v>
       </c>
       <c r="G34" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="H34" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="I34" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="J34" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="K34" t="n">
-        <v>1701.767600371033</v>
+        <v>67.13990698807751</v>
       </c>
       <c r="L34" t="n">
-        <v>1786.996890721358</v>
+        <v>152.3691973384021</v>
       </c>
       <c r="M34" t="n">
-        <v>1885.45511701683</v>
+        <v>250.8274236338743</v>
       </c>
       <c r="N34" t="n">
-        <v>1989.588363015515</v>
+        <v>354.9606696325595</v>
       </c>
       <c r="O34" t="n">
-        <v>2063.774623795301</v>
+        <v>429.1469304123455</v>
       </c>
       <c r="P34" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="Q34" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="R34" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="S34" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="T34" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="U34" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="V34" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="W34" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="X34" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="Y34" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>782.985382828809</v>
+        <v>826.983798083631</v>
       </c>
       <c r="C35" t="n">
-        <v>429.2424561811536</v>
+        <v>826.983798083631</v>
       </c>
       <c r="D35" t="n">
-        <v>429.2424561811536</v>
+        <v>826.983798083631</v>
       </c>
       <c r="E35" t="n">
-        <v>429.2424561811536</v>
+        <v>826.983798083631</v>
       </c>
       <c r="F35" t="n">
         <v>429.2424561811536</v>
@@ -6940,49 +6940,49 @@
         <v>31.50111427867621</v>
       </c>
       <c r="K35" t="n">
-        <v>40.17534475760469</v>
+        <v>248.1211098302583</v>
       </c>
       <c r="L35" t="n">
-        <v>363.8946665197336</v>
+        <v>571.8404315923872</v>
       </c>
       <c r="M35" t="n">
-        <v>518.3488918354489</v>
+        <v>960.9165107728954</v>
       </c>
       <c r="N35" t="n">
-        <v>906.8781927266207</v>
+        <v>1349.445811664067</v>
       </c>
       <c r="O35" t="n">
-        <v>1236.846035416492</v>
+        <v>1544.023674155426</v>
       </c>
       <c r="P35" t="n">
-        <v>1474.318382461046</v>
+        <v>1575.05571393381</v>
       </c>
       <c r="Q35" t="n">
         <v>1575.05571393381</v>
       </c>
       <c r="R35" t="n">
-        <v>1575.05571393381</v>
+        <v>1490.705367542967</v>
       </c>
       <c r="S35" t="n">
-        <v>1575.05571393381</v>
+        <v>1301.70110885389</v>
       </c>
       <c r="T35" t="n">
-        <v>1575.05571393381</v>
+        <v>1301.70110885389</v>
       </c>
       <c r="U35" t="n">
-        <v>1575.05571393381</v>
+        <v>1049.167068860439</v>
       </c>
       <c r="V35" t="n">
-        <v>1575.05571393381</v>
+        <v>826.983798083631</v>
       </c>
       <c r="W35" t="n">
-        <v>1546.998319996772</v>
+        <v>826.983798083631</v>
       </c>
       <c r="X35" t="n">
-        <v>1546.998319996772</v>
+        <v>826.983798083631</v>
       </c>
       <c r="Y35" t="n">
-        <v>1160.851282200358</v>
+        <v>826.983798083631</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>106.9571863559443</v>
+        <v>365.4920344400176</v>
       </c>
       <c r="C36" t="n">
-        <v>106.9571863559443</v>
+        <v>365.4920344400176</v>
       </c>
       <c r="D36" t="n">
-        <v>106.9571863559443</v>
+        <v>365.4920344400176</v>
       </c>
       <c r="E36" t="n">
-        <v>106.9571863559443</v>
+        <v>191.9288305614321</v>
       </c>
       <c r="F36" t="n">
-        <v>106.9571863559443</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="G36" t="n">
-        <v>106.9571863559443</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="H36" t="n">
-        <v>106.9571863559443</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="I36" t="n">
         <v>31.50111427867621</v>
@@ -7019,49 +7019,49 @@
         <v>31.50111427867621</v>
       </c>
       <c r="K36" t="n">
-        <v>51.45922420704512</v>
+        <v>221.1189630553546</v>
       </c>
       <c r="L36" t="n">
-        <v>372.7103645178432</v>
+        <v>542.3701033661526</v>
       </c>
       <c r="M36" t="n">
-        <v>567.1128808304177</v>
+        <v>663.2505833920266</v>
       </c>
       <c r="N36" t="n">
-        <v>956.9391700290357</v>
+        <v>1053.076872590645</v>
       </c>
       <c r="O36" t="n">
-        <v>1312.091311435424</v>
+        <v>1199.008507266685</v>
       </c>
       <c r="P36" t="n">
-        <v>1575.05571393381</v>
+        <v>1461.972909765071</v>
       </c>
       <c r="Q36" t="n">
         <v>1575.05571393381</v>
       </c>
       <c r="R36" t="n">
-        <v>1498.469650223159</v>
+        <v>1575.05571393381</v>
       </c>
       <c r="S36" t="n">
-        <v>1322.742368533652</v>
+        <v>1575.05571393381</v>
       </c>
       <c r="T36" t="n">
-        <v>1109.462375593603</v>
+        <v>1361.775720993761</v>
       </c>
       <c r="U36" t="n">
-        <v>869.9011046593218</v>
+        <v>1122.21445005948</v>
       </c>
       <c r="V36" t="n">
-        <v>626.8213865629559</v>
+        <v>879.1347319631141</v>
       </c>
       <c r="W36" t="n">
-        <v>357.4228172932472</v>
+        <v>609.7361626934054</v>
       </c>
       <c r="X36" t="n">
-        <v>137.9148229099436</v>
+        <v>609.7361626934054</v>
       </c>
       <c r="Y36" t="n">
-        <v>106.9571863559443</v>
+        <v>544.0278873669527</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="C37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="D37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="E37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="F37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="G37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="H37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="I37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="J37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="K37" t="n">
-        <v>1175.714377913094</v>
+        <v>56.61884253891874</v>
       </c>
       <c r="L37" t="n">
-        <v>1260.943668263419</v>
+        <v>141.8481328892433</v>
       </c>
       <c r="M37" t="n">
-        <v>1359.401894558891</v>
+        <v>240.3063591847155</v>
       </c>
       <c r="N37" t="n">
-        <v>1463.535140557577</v>
+        <v>344.4396051834008</v>
       </c>
       <c r="O37" t="n">
-        <v>1537.721401337363</v>
+        <v>418.6258659631868</v>
       </c>
       <c r="P37" t="n">
-        <v>1575.05571393381</v>
+        <v>455.9601785596346</v>
       </c>
       <c r="Q37" t="n">
-        <v>1513.823392680363</v>
+        <v>455.9601785596346</v>
       </c>
       <c r="R37" t="n">
-        <v>1344.46016207461</v>
+        <v>286.5969479538817</v>
       </c>
       <c r="S37" t="n">
-        <v>1150.596649652852</v>
+        <v>254.0903911053755</v>
       </c>
       <c r="T37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="U37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="V37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="W37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="X37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="Y37" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1188.908676137396</v>
+        <v>704.870385876693</v>
       </c>
       <c r="C38" t="n">
-        <v>835.1657494897408</v>
+        <v>704.870385876693</v>
       </c>
       <c r="D38" t="n">
-        <v>835.1657494897408</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="E38" t="n">
-        <v>459.9345251850579</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="F38" t="n">
-        <v>62.19318328258049</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="G38" t="n">
-        <v>31.50111427867621</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="H38" t="n">
         <v>31.50111427867621</v>
@@ -7174,25 +7174,25 @@
         <v>31.50111427867621</v>
       </c>
       <c r="J38" t="n">
-        <v>104.4656533500096</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="K38" t="n">
-        <v>321.0856489015918</v>
+        <v>248.1211098302583</v>
       </c>
       <c r="L38" t="n">
-        <v>644.8049706637206</v>
+        <v>571.8404315923872</v>
       </c>
       <c r="M38" t="n">
-        <v>745.509127837907</v>
+        <v>672.5445887665736</v>
       </c>
       <c r="N38" t="n">
-        <v>1134.038428729079</v>
+        <v>906.8781927266207</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.00627141895</v>
+        <v>1236.846035416492</v>
       </c>
       <c r="P38" t="n">
-        <v>1575.05571393381</v>
+        <v>1474.318382461046</v>
       </c>
       <c r="Q38" t="n">
         <v>1575.05571393381</v>
@@ -7207,19 +7207,19 @@
         <v>1575.05571393381</v>
       </c>
       <c r="U38" t="n">
-        <v>1575.05571393381</v>
+        <v>1468.883323044656</v>
       </c>
       <c r="V38" t="n">
-        <v>1575.05571393381</v>
+        <v>1468.883323044656</v>
       </c>
       <c r="W38" t="n">
-        <v>1575.05571393381</v>
+        <v>1468.883323044656</v>
       </c>
       <c r="X38" t="n">
-        <v>1575.05571393381</v>
+        <v>1468.883323044656</v>
       </c>
       <c r="Y38" t="n">
-        <v>1188.908676137396</v>
+        <v>1082.736285248242</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>630.7127807405344</v>
+        <v>301.2814044748279</v>
       </c>
       <c r="C39" t="n">
-        <v>441.3005064734981</v>
+        <v>111.8691302077916</v>
       </c>
       <c r="D39" t="n">
-        <v>280.5203902345299</v>
+        <v>111.8691302077916</v>
       </c>
       <c r="E39" t="n">
-        <v>106.9571863559443</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="F39" t="n">
-        <v>106.9571863559443</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="G39" t="n">
-        <v>106.9571863559443</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="H39" t="n">
-        <v>106.9571863559443</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="I39" t="n">
         <v>31.50111427867621</v>
       </c>
       <c r="J39" t="n">
-        <v>68.28117539844287</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8990241751212</v>
+        <v>221.1189630553546</v>
       </c>
       <c r="L39" t="n">
-        <v>429.957146694207</v>
+        <v>542.3701033661526</v>
       </c>
       <c r="M39" t="n">
-        <v>819.7834358928251</v>
+        <v>663.2505833920266</v>
       </c>
       <c r="N39" t="n">
-        <v>1209.609725091443</v>
+        <v>1053.076872590645</v>
       </c>
       <c r="O39" t="n">
-        <v>1312.091311435424</v>
+        <v>1199.008507266685</v>
       </c>
       <c r="P39" t="n">
-        <v>1575.05571393381</v>
+        <v>1461.972909765071</v>
       </c>
       <c r="Q39" t="n">
         <v>1575.05571393381</v>
       </c>
       <c r="R39" t="n">
-        <v>1575.05571393381</v>
+        <v>1498.469650223159</v>
       </c>
       <c r="S39" t="n">
-        <v>1399.328432244303</v>
+        <v>1498.469650223159</v>
       </c>
       <c r="T39" t="n">
-        <v>1186.048439304254</v>
+        <v>1498.469650223159</v>
       </c>
       <c r="U39" t="n">
-        <v>946.4871683699728</v>
+        <v>1258.908379288878</v>
       </c>
       <c r="V39" t="n">
-        <v>856.3534738052067</v>
+        <v>1015.828661192513</v>
       </c>
       <c r="W39" t="n">
-        <v>856.3534738052067</v>
+        <v>746.4300919228039</v>
       </c>
       <c r="X39" t="n">
-        <v>856.3534738052067</v>
+        <v>526.9220975395002</v>
       </c>
       <c r="Y39" t="n">
-        <v>630.7127807405344</v>
+        <v>301.2814044748279</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="C40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="D40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="E40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="F40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="G40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="H40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="I40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="J40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="K40" t="n">
-        <v>1175.714377913094</v>
+        <v>56.61884253891874</v>
       </c>
       <c r="L40" t="n">
-        <v>1260.943668263419</v>
+        <v>141.8481328892433</v>
       </c>
       <c r="M40" t="n">
-        <v>1359.401894558891</v>
+        <v>240.3063591847155</v>
       </c>
       <c r="N40" t="n">
-        <v>1463.535140557577</v>
+        <v>344.4396051834008</v>
       </c>
       <c r="O40" t="n">
-        <v>1537.721401337363</v>
+        <v>418.6258659631868</v>
       </c>
       <c r="P40" t="n">
-        <v>1575.05571393381</v>
+        <v>455.9601785596346</v>
       </c>
       <c r="Q40" t="n">
-        <v>1575.05571393381</v>
+        <v>455.9601785596346</v>
       </c>
       <c r="R40" t="n">
-        <v>1575.05571393381</v>
+        <v>455.9601785596346</v>
       </c>
       <c r="S40" t="n">
-        <v>1575.05571393381</v>
+        <v>254.0903911053755</v>
       </c>
       <c r="T40" t="n">
-        <v>1575.05571393381</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="U40" t="n">
-        <v>1575.05571393381</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="V40" t="n">
-        <v>1575.05571393381</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="W40" t="n">
-        <v>1281.812575459734</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="X40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="Y40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867621</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>371.7590370785069</v>
+        <v>384.3179640875489</v>
       </c>
       <c r="C41" t="n">
-        <v>371.7590370785069</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="D41" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="E41" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="F41" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="G41" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="H41" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="I41" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="J41" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="K41" t="n">
         <v>247.1950329914756</v>
       </c>
       <c r="L41" t="n">
-        <v>482.2414367673802</v>
+        <v>570.9143547536044</v>
       </c>
       <c r="M41" t="n">
-        <v>582.9455939415666</v>
+        <v>932.9395020186485</v>
       </c>
       <c r="N41" t="n">
-        <v>961.3116822602483</v>
+        <v>1311.30559033733</v>
       </c>
       <c r="O41" t="n">
-        <v>1291.27952495012</v>
+        <v>1396.982500743525</v>
       </c>
       <c r="P41" t="n">
-        <v>1528.751871994673</v>
+        <v>1428.014540521909</v>
       </c>
       <c r="Q41" t="n">
-        <v>1528.751871994673</v>
+        <v>1528.751871994674</v>
       </c>
       <c r="R41" t="n">
-        <v>1528.751871994673</v>
+        <v>1444.401525603831</v>
       </c>
       <c r="S41" t="n">
-        <v>1528.751871994673</v>
+        <v>1444.401525603831</v>
       </c>
       <c r="T41" t="n">
-        <v>1311.87866999304</v>
+        <v>1227.528323602198</v>
       </c>
       <c r="U41" t="n">
-        <v>1059.344629999589</v>
+        <v>974.9942836087466</v>
       </c>
       <c r="V41" t="n">
-        <v>735.2236364549912</v>
+        <v>770.3664166114564</v>
       </c>
       <c r="W41" t="n">
-        <v>393.9140770350246</v>
+        <v>770.3664166114564</v>
       </c>
       <c r="X41" t="n">
-        <v>371.7590370785069</v>
+        <v>770.3664166114564</v>
       </c>
       <c r="Y41" t="n">
-        <v>371.7590370785069</v>
+        <v>384.3179640875489</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1057.254322209154</v>
+        <v>589.3108712350459</v>
       </c>
       <c r="C42" t="n">
-        <v>867.8420479421181</v>
+        <v>589.3108712350459</v>
       </c>
       <c r="D42" t="n">
-        <v>707.0619317031499</v>
+        <v>589.3108712350459</v>
       </c>
       <c r="E42" t="n">
-        <v>533.4987278245643</v>
+        <v>415.7476673564603</v>
       </c>
       <c r="F42" t="n">
-        <v>373.0710115418084</v>
+        <v>255.3199510737044</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7821699852655</v>
+        <v>106.0311095171616</v>
       </c>
       <c r="H42" t="n">
         <v>106.0311095171616</v>
       </c>
       <c r="I42" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="J42" t="n">
-        <v>67.35509855966014</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="K42" t="n">
-        <v>256.9729473363385</v>
+        <v>220.1928862165718</v>
       </c>
       <c r="L42" t="n">
-        <v>578.2240876471366</v>
+        <v>541.4440265273699</v>
       </c>
       <c r="M42" t="n">
-        <v>699.1045676730105</v>
+        <v>662.3245065532439</v>
       </c>
       <c r="N42" t="n">
-        <v>840.7629411112868</v>
+        <v>910.6353280898993</v>
       </c>
       <c r="O42" t="n">
-        <v>1152.704665327548</v>
+        <v>1265.787469496287</v>
       </c>
       <c r="P42" t="n">
-        <v>1415.669067825934</v>
+        <v>1528.751871994674</v>
       </c>
       <c r="Q42" t="n">
-        <v>1528.751871994673</v>
+        <v>1528.751871994674</v>
       </c>
       <c r="R42" t="n">
-        <v>1452.165808284022</v>
+        <v>1452.165808284023</v>
       </c>
       <c r="S42" t="n">
-        <v>1452.165808284022</v>
+        <v>1452.165808284023</v>
       </c>
       <c r="T42" t="n">
-        <v>1452.165808284022</v>
+        <v>1452.165808284023</v>
       </c>
       <c r="U42" t="n">
-        <v>1452.165808284022</v>
+        <v>1212.604537349742</v>
       </c>
       <c r="V42" t="n">
-        <v>1452.165808284022</v>
+        <v>969.5248192533761</v>
       </c>
       <c r="W42" t="n">
-        <v>1452.165808284022</v>
+        <v>700.1262499836674</v>
       </c>
       <c r="X42" t="n">
-        <v>1452.165808284022</v>
+        <v>700.1262499836674</v>
       </c>
       <c r="Y42" t="n">
-        <v>1235.79017513609</v>
+        <v>700.1262499836674</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.57503743989347</v>
+        <v>200.1765096785646</v>
       </c>
       <c r="C43" t="n">
-        <v>30.57503743989347</v>
+        <v>200.1765096785646</v>
       </c>
       <c r="D43" t="n">
-        <v>30.57503743989347</v>
+        <v>200.1765096785646</v>
       </c>
       <c r="E43" t="n">
-        <v>30.57503743989347</v>
+        <v>200.1765096785646</v>
       </c>
       <c r="F43" t="n">
-        <v>30.57503743989347</v>
+        <v>200.1765096785646</v>
       </c>
       <c r="G43" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="H43" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="I43" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="J43" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="K43" t="n">
-        <v>55.692765700136</v>
+        <v>55.69276570013601</v>
       </c>
       <c r="L43" t="n">
         <v>140.9220560504606</v>
@@ -7593,28 +7593,28 @@
         <v>455.0341017208518</v>
       </c>
       <c r="R43" t="n">
-        <v>285.670871115099</v>
+        <v>455.0341017208518</v>
       </c>
       <c r="S43" t="n">
-        <v>285.670871115099</v>
+        <v>422.765786505264</v>
       </c>
       <c r="T43" t="n">
-        <v>285.670871115099</v>
+        <v>200.1765096785646</v>
       </c>
       <c r="U43" t="n">
-        <v>285.670871115099</v>
+        <v>200.1765096785646</v>
       </c>
       <c r="V43" t="n">
-        <v>285.670871115099</v>
+        <v>200.1765096785646</v>
       </c>
       <c r="W43" t="n">
-        <v>30.57503743989347</v>
+        <v>200.1765096785646</v>
       </c>
       <c r="X43" t="n">
-        <v>30.57503743989347</v>
+        <v>200.1765096785646</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.57503743989347</v>
+        <v>200.1765096785646</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>841.2139953241094</v>
+        <v>416.623489963801</v>
       </c>
       <c r="C44" t="n">
-        <v>487.471068676454</v>
+        <v>416.623489963801</v>
       </c>
       <c r="D44" t="n">
-        <v>487.471068676454</v>
+        <v>416.623489963801</v>
       </c>
       <c r="E44" t="n">
-        <v>112.239844371771</v>
+        <v>416.623489963801</v>
       </c>
       <c r="F44" t="n">
-        <v>112.239844371771</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="G44" t="n">
-        <v>112.239844371771</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="H44" t="n">
-        <v>112.239844371771</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="I44" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="J44" t="n">
-        <v>103.5395765112269</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="K44" t="n">
-        <v>112.2138069901554</v>
+        <v>247.1950329914756</v>
       </c>
       <c r="L44" t="n">
-        <v>435.9331287522842</v>
+        <v>302.9763323951995</v>
       </c>
       <c r="M44" t="n">
-        <v>536.6372859264707</v>
+        <v>681.3424207138812</v>
       </c>
       <c r="N44" t="n">
-        <v>915.0033742451524</v>
+        <v>1059.708509032563</v>
       </c>
       <c r="O44" t="n">
-        <v>1190.542193477355</v>
+        <v>1291.27952495012</v>
       </c>
       <c r="P44" t="n">
-        <v>1428.014540521909</v>
+        <v>1528.751871994674</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.751871994673</v>
+        <v>1528.751871994674</v>
       </c>
       <c r="R44" t="n">
-        <v>1528.751871994673</v>
+        <v>1444.401525603831</v>
       </c>
       <c r="S44" t="n">
-        <v>1528.751871994673</v>
+        <v>1255.397266914754</v>
       </c>
       <c r="T44" t="n">
-        <v>1528.751871994673</v>
+        <v>1038.524064913121</v>
       </c>
       <c r="U44" t="n">
-        <v>1528.751871994673</v>
+        <v>785.9900249196696</v>
       </c>
       <c r="V44" t="n">
-        <v>1204.630878450075</v>
+        <v>757.9330493837676</v>
       </c>
       <c r="W44" t="n">
-        <v>1204.630878450075</v>
+        <v>416.623489963801</v>
       </c>
       <c r="X44" t="n">
-        <v>841.2139953241094</v>
+        <v>416.623489963801</v>
       </c>
       <c r="Y44" t="n">
-        <v>841.2139953241094</v>
+        <v>416.623489963801</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>331.5636262463419</v>
+        <v>750.0909874740141</v>
       </c>
       <c r="C45" t="n">
-        <v>331.5636262463419</v>
+        <v>750.0909874740141</v>
       </c>
       <c r="D45" t="n">
-        <v>170.7835100073737</v>
+        <v>589.3108712350459</v>
       </c>
       <c r="E45" t="n">
-        <v>170.7835100073737</v>
+        <v>415.7476673564603</v>
       </c>
       <c r="F45" t="n">
-        <v>30.57503743989347</v>
+        <v>255.3199510737044</v>
       </c>
       <c r="G45" t="n">
-        <v>30.57503743989347</v>
+        <v>106.0311095171616</v>
       </c>
       <c r="H45" t="n">
-        <v>30.57503743989347</v>
+        <v>106.0311095171616</v>
       </c>
       <c r="I45" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="J45" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="K45" t="n">
         <v>220.1928862165718</v>
@@ -7736,43 +7736,43 @@
         <v>541.4440265273699</v>
       </c>
       <c r="M45" t="n">
-        <v>768.9769546516226</v>
+        <v>784.939794833625</v>
       </c>
       <c r="N45" t="n">
-        <v>910.6353280898988</v>
+        <v>1163.305883152307</v>
       </c>
       <c r="O45" t="n">
         <v>1265.787469496287</v>
       </c>
       <c r="P45" t="n">
-        <v>1528.751871994673</v>
+        <v>1528.751871994674</v>
       </c>
       <c r="Q45" t="n">
-        <v>1528.751871994673</v>
+        <v>1528.751871994674</v>
       </c>
       <c r="R45" t="n">
-        <v>1528.751871994673</v>
+        <v>1528.751871994674</v>
       </c>
       <c r="S45" t="n">
-        <v>1528.751871994673</v>
+        <v>1353.024590305167</v>
       </c>
       <c r="T45" t="n">
-        <v>1528.751871994673</v>
+        <v>1139.744597365117</v>
       </c>
       <c r="U45" t="n">
-        <v>1289.190601060393</v>
+        <v>1139.744597365117</v>
       </c>
       <c r="V45" t="n">
-        <v>1046.110882964027</v>
+        <v>896.6648792687513</v>
       </c>
       <c r="W45" t="n">
-        <v>776.7123136943179</v>
+        <v>750.0909874740141</v>
       </c>
       <c r="X45" t="n">
-        <v>557.2043193110143</v>
+        <v>750.0909874740141</v>
       </c>
       <c r="Y45" t="n">
-        <v>331.5636262463419</v>
+        <v>750.0909874740141</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>275.6230707461366</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="C46" t="n">
-        <v>107.4845041077807</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="D46" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="E46" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="F46" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="G46" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="H46" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="I46" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="J46" t="n">
-        <v>30.57503743989347</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="K46" t="n">
-        <v>55.692765700136</v>
+        <v>55.69276570013601</v>
       </c>
       <c r="L46" t="n">
         <v>140.9220560504606</v>
@@ -7836,22 +7836,22 @@
         <v>455.0341017208518</v>
       </c>
       <c r="T46" t="n">
-        <v>455.0341017208518</v>
+        <v>232.4448248941525</v>
       </c>
       <c r="U46" t="n">
-        <v>455.0341017208518</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="V46" t="n">
-        <v>455.0341017208518</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="W46" t="n">
-        <v>455.0341017208518</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="X46" t="n">
-        <v>455.0341017208518</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="Y46" t="n">
-        <v>455.0341017208518</v>
+        <v>30.57503743989348</v>
       </c>
     </row>
   </sheetData>
@@ -8701,16 +8701,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>22.46027334943849</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>4.342641847541941</v>
       </c>
       <c r="P11" t="n">
-        <v>25.21584581030493</v>
+        <v>100.167810888844</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>35.82523367209865</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>25.21584581030493</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.09440514041466</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>109.5746066315038</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>71.05197217429902</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>99.1052978323101</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.82523367209865</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>34.26016587920981</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.90502773693211</v>
+        <v>56.16519361614193</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>106.9250241882943</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>71.05197217429905</v>
       </c>
       <c r="Q20" t="n">
         <v>137.5801139476182</v>
@@ -9485,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>34.26016587920982</v>
       </c>
       <c r="M21" t="n">
-        <v>20.98777112363877</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>13.27239475557104</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>21.90502773693211</v>
@@ -9725,13 +9725,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.77688131</v>
+        <v>249.466512171614</v>
       </c>
       <c r="N24" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
-        <v>202.9124137529353</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K26" t="n">
         <v>210.0462273461148</v>
@@ -9895,7 +9895,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.5801139476181</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9953,16 +9953,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>44.55541401193173</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>81.91152755711136</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>249.4665121716135</v>
+        <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K29" t="n">
         <v>210.0462273461148</v>
@@ -10193,7 +10193,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>81.91152755711136</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>46.66813642579061</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>109.5746066315037</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
         <v>210.0462273461148</v>
@@ -10427,7 +10427,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>44.55541401193173</v>
       </c>
       <c r="K33" t="n">
         <v>171.373473584151</v>
@@ -10439,7 +10439,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>221.151912547583</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>83.81971331444387</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10588,25 +10588,25 @@
         <v>35.87305201399531</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>54.29299812275647</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N35" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O35" t="n">
-        <v>246.758517458259</v>
+        <v>110.0009617021858</v>
       </c>
       <c r="P35" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>35.82523367209865</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10667,25 +10667,25 @@
         <v>44.55541401193173</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M36" t="n">
-        <v>74.2646831178794</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>250.6746623841836</v>
       </c>
       <c r="O36" t="n">
-        <v>255.2227828913207</v>
+        <v>43.88893770915095</v>
       </c>
       <c r="P36" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.90502773693211</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>109.5746066315038</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K38" t="n">
         <v>210.0462273461148</v>
@@ -10834,16 +10834,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>283.4008070189657</v>
+        <v>127.6475777956074</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
-        <v>80.82565932977343</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
-        <v>35.82523367209865</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10901,28 +10901,28 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>44.55541401193173</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>89.604525785215</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
-        <v>271.6624335078223</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>250.6746623841836</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>43.88893770915095</v>
       </c>
       <c r="P39" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.90502773693211</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11065,22 +11065,22 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>181.0758630022028</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>263.9605960513714</v>
       </c>
       <c r="N41" t="n">
-        <v>273.1349357336221</v>
+        <v>273.1349357336222</v>
       </c>
       <c r="O41" t="n">
-        <v>246.758517458259</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.82523367209865</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>44.55541401193173</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>107.7297455539184</v>
       </c>
       <c r="O42" t="n">
-        <v>211.5758968406873</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>21.90502773693211</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6444670286918</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>280.4665971156519</v>
       </c>
       <c r="N44" t="n">
-        <v>273.1349357336221</v>
+        <v>273.1349357336222</v>
       </c>
       <c r="O44" t="n">
-        <v>191.7797058848563</v>
+        <v>147.3677833448102</v>
       </c>
       <c r="P44" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>35.82523367209865</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11384,13 +11384,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M45" t="n">
-        <v>107.7297455539179</v>
+        <v>123.8538265458396</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>239.0987018993995</v>
       </c>
       <c r="O45" t="n">
-        <v>255.2227828913207</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>206.3638740786793</v>
@@ -23269,16 +23269,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>287.3623300547754</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>285.551843608997</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H11" t="n">
-        <v>197.3501136253246</v>
+        <v>296.5333425815057</v>
       </c>
       <c r="I11" t="n">
-        <v>41.14196589676581</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>187.1142161021862</v>
@@ -23314,16 +23314,16 @@
         <v>214.7044699816169</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0086995935164</v>
+        <v>118.4953939790317</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>189.3664779946673</v>
       </c>
       <c r="W11" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>228.2694086802214</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>45.23718878318101</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>173.9700088726122</v>
       </c>
       <c r="T12" t="n">
-        <v>155.0720290308444</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U12" t="n">
         <v>237.165658224938</v>
@@ -23399,13 +23399,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>135.1912779625269</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>168.4278138712701</v>
       </c>
     </row>
     <row r="13">
@@ -23427,19 +23427,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>113.2523254237521</v>
       </c>
       <c r="G13" t="n">
-        <v>74.72826174164447</v>
+        <v>167.9054575162844</v>
       </c>
       <c r="H13" t="n">
-        <v>27.23999724173703</v>
+        <v>158.7533028562218</v>
       </c>
       <c r="I13" t="n">
-        <v>9.42229886119452</v>
+        <v>140.9356044756792</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>64.01066663453935</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>288.6131760188819</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>113.5957095699652</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
-        <v>221.9194554082425</v>
+        <v>90.40614979375781</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.1412728141684</v>
+        <v>85.6279671996837</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>218.6921917666941</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>206.2588540277426</v>
       </c>
       <c r="E14" t="n">
-        <v>239.9656064471514</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>271.6859440255288</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>285.551843608997</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H14" t="n">
-        <v>213.0264996545712</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I14" t="n">
         <v>172.6552715112505</v>
@@ -23548,7 +23548,7 @@
         <v>187.1142161021862</v>
       </c>
       <c r="T14" t="n">
-        <v>214.7044699816169</v>
+        <v>83.19116436713216</v>
       </c>
       <c r="U14" t="n">
         <v>250.0086995935164</v>
@@ -23557,7 +23557,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>222.0595442405289</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60.91357481242768</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>56.0048459098812</v>
       </c>
       <c r="D15" t="n">
-        <v>27.65900946209382</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>40.31426622531495</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.7959531409774</v>
+        <v>16.28264752649267</v>
       </c>
       <c r="H15" t="n">
         <v>116.5735498634229</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>173.9700088726122</v>
       </c>
       <c r="T15" t="n">
-        <v>211.1471930106489</v>
+        <v>171.1304764989553</v>
       </c>
       <c r="U15" t="n">
         <v>237.165658224938</v>
@@ -23636,7 +23636,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>135.1912779625269</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
@@ -23655,7 +23655,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>34.94387535748763</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -23667,16 +23667,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9054575162844</v>
+        <v>71.3375931480179</v>
       </c>
       <c r="H16" t="n">
-        <v>126.1961051224946</v>
+        <v>158.7533028562218</v>
       </c>
       <c r="I16" t="n">
-        <v>9.422298861194509</v>
+        <v>140.9356044756792</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>64.01066663453935</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>36.15629268521059</v>
+        <v>167.6695982996953</v>
       </c>
       <c r="S16" t="n">
-        <v>221.577830942235</v>
+        <v>90.06452532775029</v>
       </c>
       <c r="T16" t="n">
         <v>220.3633840584323</v>
@@ -23737,13 +23737,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>211.7391340619913</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>260.1099835407446</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
         <v>273.9758831242128</v>
@@ -23752,7 +23752,7 @@
         <v>328.8634192398093</v>
       </c>
       <c r="I17" t="n">
-        <v>29.56600541198159</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>214.7044699816169</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0086995935164</v>
+        <v>123.9756740132804</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>177.7905175098831</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>194.8071977264979</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23813,13 +23813,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>137.3053290176744</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>28.73830574053073</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -23828,7 +23828,7 @@
         <v>147.7959531409774</v>
       </c>
       <c r="H18" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>74.70151135649544</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S18" t="n">
-        <v>30.88074277334326</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T18" t="n">
-        <v>68.05792691137992</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U18" t="n">
-        <v>94.07639212566906</v>
+        <v>227.7061825081249</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>97.5596548161333</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -23879,7 +23879,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>80.29502003475667</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.52765456569915</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23901,16 +23901,16 @@
         <v>141.676141212225</v>
       </c>
       <c r="F19" t="n">
-        <v>138.9268822184467</v>
+        <v>4.890940778835756</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9054575162844</v>
+        <v>24.81619141701549</v>
       </c>
       <c r="H19" t="n">
         <v>158.7533028562218</v>
       </c>
       <c r="I19" t="n">
-        <v>6.899663036068347</v>
+        <v>140.9356044756792</v>
       </c>
       <c r="J19" t="n">
         <v>64.01066663453935</v>
@@ -23943,7 +23943,7 @@
         <v>221.577830942235</v>
       </c>
       <c r="T19" t="n">
-        <v>77.27411795916339</v>
+        <v>220.3633840584323</v>
       </c>
       <c r="U19" t="n">
         <v>288.6131760188819</v>
@@ -23952,7 +23952,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>147.2214409900664</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23977,16 +23977,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>228.3896459623672</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.0651492234818</v>
+        <v>273.9758831242128</v>
       </c>
       <c r="H20" t="n">
-        <v>185.7741531405403</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I20" t="n">
         <v>172.6552715112505</v>
@@ -24028,13 +24028,13 @@
         <v>250.0086995935164</v>
       </c>
       <c r="V20" t="n">
-        <v>177.7905175098831</v>
+        <v>194.846758028916</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7496887144702</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -24053,13 +24053,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>16.0830489773096</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>15.7341730206594</v>
       </c>
       <c r="G21" t="n">
         <v>147.7959531409774</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>47.93698329237621</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T21" t="n">
         <v>68.05792691137992</v>
       </c>
       <c r="U21" t="n">
-        <v>94.07639212566906</v>
+        <v>237.165658224938</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>190.4360984087107</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>123.6153174777426</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.6169206649681</v>
+        <v>34.52765456569915</v>
       </c>
       <c r="C22" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
-        <v>71.7667068520126</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
         <v>141.676141212225</v>
@@ -24141,7 +24141,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9054575162844</v>
+        <v>33.86951607667353</v>
       </c>
       <c r="H22" t="n">
         <v>158.7533028562218</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>60.61999804091276</v>
       </c>
       <c r="R22" t="n">
-        <v>24.58033220042638</v>
+        <v>167.6695982996953</v>
       </c>
       <c r="S22" t="n">
         <v>221.577830942235</v>
@@ -24211,7 +24211,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>35.82995213643528</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>187.1142161021862</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>122.0876094802462</v>
+        <v>214.7044699816169</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0086995935164</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24271,7 +24271,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>168.8486026861978</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>147.7959531409774</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I24" t="n">
         <v>74.70151135649544</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>58.01180046523245</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24366,19 +24366,19 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>5.571200043233546</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9054575162844</v>
+        <v>131.2894376642764</v>
       </c>
       <c r="H25" t="n">
         <v>158.7533028562218</v>
@@ -24432,7 +24432,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>88.78335949114819</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
         <v>337.7721596422273</v>
@@ -24457,7 +24457,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>19.04982405134035</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>328.8634192398093</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.7044699816169</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0086995935164</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>127.8377104091277</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.7959531409774</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>116.5735498634229</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>75.82020307354448</v>
+        <v>71.30714846505063</v>
       </c>
       <c r="S27" t="n">
         <v>173.9700088726122</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>60.54323242854171</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -24615,7 +24615,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9054575162844</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>158.7533028562218</v>
@@ -24648,7 +24648,7 @@
         <v>60.61999804091276</v>
       </c>
       <c r="R28" t="n">
-        <v>167.6695982996953</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>221.577830942235</v>
@@ -24666,10 +24666,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
-        <v>196.4631752492303</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>207.2427412127608</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>187.1142161021862</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>214.7044699816169</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0086995935164</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>119.4536779806533</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>140.0528720654648</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,13 +24818,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>37.79698576014957</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -24858,10 +24858,10 @@
         <v>158.7533028562218</v>
       </c>
       <c r="I31" t="n">
-        <v>13.02139381267793</v>
+        <v>140.9356044756792</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>64.01066663453935</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>60.61999804091276</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>221.577830942235</v>
+        <v>110.7090968160066</v>
       </c>
       <c r="T31" t="n">
         <v>220.3633840584323</v>
@@ -24919,10 +24919,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>172.6552715112505</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>23.64440690671091</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T32" t="n">
         <v>214.7044699816169</v>
@@ -24976,16 +24976,16 @@
         <v>250.0086995935164</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>278.7627772188036</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,13 +25001,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>18.36730582208807</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>75.82020307354448</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>78.99921817444257</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>91.76508551507617</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>33.10149879675926</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9054575162844</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>158.7533028562218</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
@@ -25165,7 +25165,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>9.435321156560917</v>
       </c>
       <c r="G35" t="n">
         <v>23.30122074002924</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>187.1142161021862</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>214.7044699816169</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0086995935164</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>100.9183455401118</v>
       </c>
       <c r="W35" t="n">
-        <v>310.1196438280987</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -25241,10 +25241,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>147.7959531409774</v>
@@ -25253,7 +25253,7 @@
         <v>116.5735498634229</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>192.7362259455663</v>
+        <v>158.3330935608374</v>
       </c>
     </row>
     <row r="37">
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>60.61999804091276</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>29.65295364469432</v>
+        <v>189.3963396622139</v>
       </c>
       <c r="T37" t="n">
-        <v>220.3633840584323</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>288.6131760188819</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>9.435321156560917</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>386.6800009096166</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H38" t="n">
-        <v>328.8634192398093</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>172.6552715112505</v>
@@ -25447,7 +25447,7 @@
         <v>214.7044699816169</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0086995935164</v>
+        <v>144.8980326132537</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25475,10 +25475,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>92.26323606997545</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -25490,7 +25490,7 @@
         <v>116.5735498634229</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>151.4165632962838</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>167.6695982996953</v>
       </c>
       <c r="S40" t="n">
-        <v>221.577830942235</v>
+        <v>21.72674136251857</v>
       </c>
       <c r="T40" t="n">
-        <v>220.3633840584323</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>288.6131760188819</v>
@@ -25611,10 +25611,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>92.01568885942928</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -25630,10 +25630,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>187.1142161021862</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>118.2981952818347</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>337.8492247377536</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0.09759941978143161</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>67.04326943653037</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>211.1471930106489</v>
       </c>
       <c r="U42" t="n">
-        <v>237.165658224938</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.172409317572118</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9054575162844</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>158.7533028562218</v>
@@ -25833,13 +25833,13 @@
         <v>60.61999804091276</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>167.6695982996953</v>
       </c>
       <c r="S43" t="n">
-        <v>221.577830942235</v>
+        <v>189.6321988788031</v>
       </c>
       <c r="T43" t="n">
-        <v>220.3633840584323</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>288.6131760188819</v>
@@ -25848,7 +25848,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>37.76583175088189</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25867,16 +25867,16 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>21.01128164134502</v>
       </c>
       <c r="G44" t="n">
         <v>417.0651492234818</v>
@@ -25885,7 +25885,7 @@
         <v>328.8634192398093</v>
       </c>
       <c r="I44" t="n">
-        <v>91.80711264869176</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>187.1142161021862</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.7044699816169</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0086995935164</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>293.103377828609</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
         <v>382.2855674184499</v>
@@ -25952,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>20.01705127812292</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>147.7959531409774</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>116.5735498634229</v>
       </c>
       <c r="I45" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>75.82020307354448</v>
       </c>
       <c r="S45" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.1471930106489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.165658224938</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>121.5964307002218</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>69.04227824950237</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -26076,10 +26076,10 @@
         <v>221.577830942235</v>
       </c>
       <c r="T46" t="n">
-        <v>220.3633840584323</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6131760188819</v>
+        <v>88.76208643916553</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>409127.251044982</v>
+        <v>409127.2510449821</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>409127.2510449821</v>
+        <v>409127.251044982</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>416676.9176738164</v>
+        <v>416676.9176738166</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671200.6894860435</v>
+        <v>671200.6894860433</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671200.6894860433</v>
+        <v>671200.6894860434</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>583617.4440903923</v>
+        <v>583617.4440903921</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>575908.2607260775</v>
+        <v>575908.2607260774</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595304.0967441107</v>
+      </c>
+      <c r="C2" t="n">
         <v>595304.0967441106</v>
       </c>
-      <c r="C2" t="n">
-        <v>595304.0967441102</v>
-      </c>
       <c r="D2" t="n">
-        <v>595304.0967441101</v>
+        <v>595304.0967441106</v>
       </c>
       <c r="E2" t="n">
+        <v>248861.5972117352</v>
+      </c>
+      <c r="F2" t="n">
         <v>248861.5972117353</v>
-      </c>
-      <c r="F2" t="n">
-        <v>248861.5972117352</v>
       </c>
       <c r="G2" t="n">
         <v>252561.0875781893</v>
       </c>
       <c r="H2" t="n">
-        <v>252561.0875781893</v>
+        <v>252561.0875781892</v>
       </c>
       <c r="I2" t="n">
+        <v>374702.2012805197</v>
+      </c>
+      <c r="J2" t="n">
         <v>374702.2012805198</v>
-      </c>
-      <c r="J2" t="n">
-        <v>374702.2012805194</v>
       </c>
       <c r="K2" t="n">
         <v>374702.2012805195</v>
@@ -26346,13 +26346,13 @@
         <v>374702.2012805197</v>
       </c>
       <c r="M2" t="n">
+        <v>332672.6688006168</v>
+      </c>
+      <c r="N2" t="n">
         <v>332672.6688006169</v>
       </c>
-      <c r="N2" t="n">
-        <v>332672.6688006168</v>
-      </c>
       <c r="O2" t="n">
-        <v>328973.1784341626</v>
+        <v>328973.1784341627</v>
       </c>
       <c r="P2" t="n">
         <v>328973.1784341627</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3172.797129472087</v>
+        <v>3172.797129472056</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26444,22 +26444,22 @@
         <v>74848.79324093937</v>
       </c>
       <c r="K4" t="n">
-        <v>74848.79324093937</v>
+        <v>74848.79324093935</v>
       </c>
       <c r="L4" t="n">
-        <v>74848.79324093935</v>
+        <v>74848.79324093938</v>
       </c>
       <c r="M4" t="n">
-        <v>54106.17460461237</v>
+        <v>54106.17460461236</v>
       </c>
       <c r="N4" t="n">
-        <v>54106.17460461235</v>
+        <v>54106.17460461236</v>
       </c>
       <c r="O4" t="n">
-        <v>52280.38418315538</v>
+        <v>52280.38418315539</v>
       </c>
       <c r="P4" t="n">
-        <v>52280.38418315537</v>
+        <v>52280.3841831554</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>20520.02803325525</v>
       </c>
       <c r="I5" t="n">
-        <v>43757.0564875743</v>
+        <v>43757.05648757429</v>
       </c>
       <c r="J5" t="n">
         <v>43757.05648757429</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110288.3487819353</v>
+        <v>110243.6849398835</v>
       </c>
       <c r="C6" t="n">
-        <v>110288.3487819349</v>
+        <v>110243.6849398834</v>
       </c>
       <c r="D6" t="n">
-        <v>110288.3487819348</v>
+        <v>110243.6849398834</v>
       </c>
       <c r="E6" t="n">
-        <v>-258738.4126672082</v>
+        <v>-271614.2801956444</v>
       </c>
       <c r="F6" t="n">
-        <v>216142.5426177806</v>
+        <v>203266.6750893445</v>
       </c>
       <c r="G6" t="n">
-        <v>214299.143771311</v>
+        <v>201560.2944045954</v>
       </c>
       <c r="H6" t="n">
-        <v>217471.9409007831</v>
+        <v>204733.0915340674</v>
       </c>
       <c r="I6" t="n">
-        <v>154464.5449138323</v>
+        <v>146249.4404990546</v>
       </c>
       <c r="J6" t="n">
-        <v>256096.3515520057</v>
+        <v>247881.2471372286</v>
       </c>
       <c r="K6" t="n">
-        <v>256096.3515520059</v>
+        <v>247881.2471372284</v>
       </c>
       <c r="L6" t="n">
-        <v>256096.3515520061</v>
+        <v>247881.2471372286</v>
       </c>
       <c r="M6" t="n">
-        <v>242805.446689791</v>
+        <v>233033.6929239059</v>
       </c>
       <c r="N6" t="n">
-        <v>242805.4466897908</v>
+        <v>233033.6929239059</v>
       </c>
       <c r="O6" t="n">
-        <v>241635.5651422685</v>
+        <v>231726.793214663</v>
       </c>
       <c r="P6" t="n">
-        <v>241635.5651422686</v>
+        <v>231726.793214663</v>
       </c>
     </row>
   </sheetData>
@@ -26810,7 +26810,7 @@
         <v>143.0892660992689</v>
       </c>
       <c r="I4" t="n">
-        <v>525.2772340979375</v>
+        <v>525.2772340979374</v>
       </c>
       <c r="J4" t="n">
         <v>525.2772340979373</v>
@@ -26828,10 +26828,10 @@
         <v>393.7639284834526</v>
       </c>
       <c r="O4" t="n">
-        <v>382.1879679986683</v>
+        <v>382.1879679986685</v>
       </c>
       <c r="P4" t="n">
-        <v>382.1879679986683</v>
+        <v>382.1879679986685</v>
       </c>
     </row>
   </sheetData>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.57596048478423</v>
+        <v>11.57596048478412</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>382.1879679986684</v>
+        <v>382.1879679986683</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.57596048478423</v>
+        <v>11.57596048478412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35421,16 +35421,16 @@
         <v>101.7213708830166</v>
       </c>
       <c r="N11" t="n">
-        <v>109.0530322650462</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="O11" t="n">
-        <v>86.54233374363133</v>
+        <v>90.88497559117327</v>
       </c>
       <c r="P11" t="n">
-        <v>56.5613405359456</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.7548802755196</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.70155461750851</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>8.761848968614629</v>
@@ -35661,13 +35661,13 @@
         <v>109.0530322650462</v>
       </c>
       <c r="O14" t="n">
-        <v>86.54233374363133</v>
+        <v>111.7581795539363</v>
       </c>
       <c r="P14" t="n">
         <v>31.34549472564066</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.26917146831602</v>
+        <v>101.7548802755196</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.70155461750851</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>8.761848968614629</v>
+        <v>79.81382114291365</v>
       </c>
       <c r="L17" t="n">
         <v>56.34474687244841</v>
@@ -35901,10 +35901,10 @@
         <v>86.54233374363133</v>
       </c>
       <c r="P17" t="n">
-        <v>130.4507925579508</v>
+        <v>31.34549472564066</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>101.7548802755196</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>103.5167538828088</v>
       </c>
       <c r="P18" t="n">
-        <v>93.51690038475903</v>
+        <v>59.25673450554925</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>34.26016587920981</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.05197217429904</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>8.761848968614629</v>
@@ -36138,7 +36138,7 @@
         <v>86.54233374363133</v>
       </c>
       <c r="P20" t="n">
-        <v>31.34549472564066</v>
+        <v>102.3974668999397</v>
       </c>
       <c r="Q20" t="n">
         <v>101.7548802755196</v>
@@ -36205,10 +36205,10 @@
         <v>20.15970699835245</v>
       </c>
       <c r="L21" t="n">
-        <v>84.19155756739696</v>
+        <v>118.4517234466068</v>
       </c>
       <c r="M21" t="n">
-        <v>143.0892660992689</v>
+        <v>122.1014949756302</v>
       </c>
       <c r="N21" t="n">
         <v>143.0892660992689</v>
@@ -36217,7 +36217,7 @@
         <v>103.5167538828088</v>
       </c>
       <c r="P21" t="n">
-        <v>72.52912926112027</v>
+        <v>59.25673450554925</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>324.4961013240385</v>
       </c>
       <c r="M24" t="n">
-        <v>423.8783762856302</v>
+        <v>371.5680071472442</v>
       </c>
       <c r="N24" t="n">
         <v>453.7031246738916</v>
       </c>
       <c r="O24" t="n">
-        <v>306.4291676357441</v>
+        <v>358.7395367741295</v>
       </c>
       <c r="P24" t="n">
         <v>265.6206085842285</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.70155461750851</v>
+        <v>73.70155461750841</v>
       </c>
       <c r="K26" t="n">
         <v>218.8080763147294</v>
@@ -36615,7 +36615,7 @@
         <v>239.8710576207614</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.7548802755195</v>
+        <v>101.7548802755196</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>37.1515768886532</v>
       </c>
       <c r="K27" t="n">
-        <v>191.5331805825034</v>
+        <v>102.0712345554638</v>
       </c>
       <c r="L27" t="n">
         <v>324.4961013240385</v>
       </c>
       <c r="M27" t="n">
-        <v>371.5680071472437</v>
+        <v>423.8783762856302</v>
       </c>
       <c r="N27" t="n">
         <v>453.7031246738916</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.70155461750851</v>
+        <v>73.70155461750841</v>
       </c>
       <c r="K29" t="n">
         <v>218.8080763147294</v>
@@ -36913,7 +36913,7 @@
         <v>37.1515768886532</v>
       </c>
       <c r="K30" t="n">
-        <v>102.0712345554638</v>
+        <v>191.5331805825034</v>
       </c>
       <c r="L30" t="n">
         <v>324.4961013240385</v>
@@ -36931,7 +36931,7 @@
         <v>265.6206085842285</v>
       </c>
       <c r="Q30" t="n">
-        <v>114.2250547158981</v>
+        <v>24.76310868885849</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.70155461750841</v>
+        <v>73.70155461750851</v>
       </c>
       <c r="K32" t="n">
         <v>218.8080763147294</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>37.1515768886532</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>191.5331805825034</v>
@@ -37159,7 +37159,7 @@
         <v>423.8783762856302</v>
       </c>
       <c r="N33" t="n">
-        <v>364.2411786468519</v>
+        <v>453.7031246738916</v>
       </c>
       <c r="O33" t="n">
         <v>358.7395367741295</v>
@@ -37168,7 +37168,7 @@
         <v>265.6206085842285</v>
       </c>
       <c r="Q33" t="n">
-        <v>114.2250547158981</v>
+        <v>61.91468557751177</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>8.761848968614629</v>
+        <v>218.8080763147294</v>
       </c>
       <c r="L35" t="n">
         <v>326.9892139011403</v>
       </c>
       <c r="M35" t="n">
-        <v>156.014369005773</v>
+        <v>393.0061405863721</v>
       </c>
       <c r="N35" t="n">
         <v>392.453839284012</v>
       </c>
       <c r="O35" t="n">
-        <v>333.3008512018903</v>
+        <v>196.5432954458171</v>
       </c>
       <c r="P35" t="n">
-        <v>239.8710576207614</v>
+        <v>31.34549472564066</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.7548802755196</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>20.15970699835245</v>
+        <v>191.5331805825034</v>
       </c>
       <c r="L36" t="n">
         <v>324.4961013240385</v>
       </c>
       <c r="M36" t="n">
-        <v>196.3661780935096</v>
+        <v>122.1014949756302</v>
       </c>
       <c r="N36" t="n">
         <v>393.7639284834526</v>
       </c>
       <c r="O36" t="n">
-        <v>358.7395367741295</v>
+        <v>147.4056915919598</v>
       </c>
       <c r="P36" t="n">
         <v>265.6206085842285</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>114.2250547158981</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.70155461750851</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>218.8080763147294</v>
@@ -37554,16 +37554,16 @@
         <v>101.7213708830166</v>
       </c>
       <c r="N38" t="n">
-        <v>392.453839284012</v>
+        <v>236.7006100606536</v>
       </c>
       <c r="O38" t="n">
         <v>333.3008512018903</v>
       </c>
       <c r="P38" t="n">
-        <v>112.1711540554141</v>
+        <v>239.8710576207614</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>101.7548802755196</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>37.1515768886532</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>191.5331805825034</v>
       </c>
       <c r="L39" t="n">
-        <v>173.796083352612</v>
+        <v>324.4961013240385</v>
       </c>
       <c r="M39" t="n">
-        <v>393.7639284834526</v>
+        <v>122.1014949756302</v>
       </c>
       <c r="N39" t="n">
         <v>393.7639284834526</v>
       </c>
       <c r="O39" t="n">
-        <v>103.5167538828088</v>
+        <v>147.4056915919598</v>
       </c>
       <c r="P39" t="n">
         <v>265.6206085842285</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>114.2250547158981</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>218.8080763147294</v>
       </c>
       <c r="L41" t="n">
-        <v>237.4206098746512</v>
+        <v>326.9892139011403</v>
       </c>
       <c r="M41" t="n">
-        <v>101.7213708830166</v>
+        <v>365.681966934388</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1879679986683</v>
+        <v>382.1879679986685</v>
       </c>
       <c r="O41" t="n">
-        <v>333.3008512018903</v>
+        <v>86.54233374363133</v>
       </c>
       <c r="P41" t="n">
-        <v>239.8710576207614</v>
+        <v>31.34549472564066</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>101.7548802755196</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>37.1515768886532</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>191.5331805825034</v>
@@ -37870,16 +37870,16 @@
         <v>122.1014949756302</v>
       </c>
       <c r="N42" t="n">
-        <v>143.0892660992689</v>
+        <v>250.8190116531873</v>
       </c>
       <c r="O42" t="n">
-        <v>315.0926507234961</v>
+        <v>358.7395367741295</v>
       </c>
       <c r="P42" t="n">
         <v>265.6206085842285</v>
       </c>
       <c r="Q42" t="n">
-        <v>114.2250547158981</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.70155461750851</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>8.761848968614629</v>
+        <v>218.8080763147294</v>
       </c>
       <c r="L44" t="n">
-        <v>326.9892139011403</v>
+        <v>56.34474687244841</v>
       </c>
       <c r="M44" t="n">
-        <v>101.7213708830166</v>
+        <v>382.1879679986685</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1879679986683</v>
+        <v>382.1879679986685</v>
       </c>
       <c r="O44" t="n">
-        <v>278.3220396284876</v>
+        <v>233.9101170884416</v>
       </c>
       <c r="P44" t="n">
         <v>239.8710576207614</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.7548802755196</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>324.4961013240385</v>
       </c>
       <c r="M45" t="n">
-        <v>229.8312405295481</v>
+        <v>245.9553215214698</v>
       </c>
       <c r="N45" t="n">
-        <v>143.0892660992689</v>
+        <v>382.1879679986685</v>
       </c>
       <c r="O45" t="n">
-        <v>358.7395367741295</v>
+        <v>103.5167538828088</v>
       </c>
       <c r="P45" t="n">
         <v>265.6206085842285</v>
